--- a/BioSTEAM 2.x.x/biorefineries/lipidcane/Monte Carlo across lipid fraction.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane/Monte Carlo across lipid fraction.xlsx
@@ -501,124 +501,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2125713207135079</v>
+        <v>0.2019703964623221</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2103087419658315</v>
+        <v>0.1997946610984878</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2082854849372123</v>
+        <v>0.1980292332702772</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2062232008105992</v>
+        <v>0.1962423390411821</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2041442512202072</v>
+        <v>0.1944441547853298</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2020835113620177</v>
+        <v>0.1926647317476596</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1998818969517908</v>
+        <v>0.1907626186208068</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1977539053204712</v>
+        <v>0.1889267858925082</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1956078315240376</v>
+        <v>0.1870700271278531</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1934506746194097</v>
+        <v>0.1852117056087377</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1912874833305325</v>
+        <v>0.1833544618062501</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1890842267100419</v>
+        <v>0.1814550418672991</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1868591376158518</v>
+        <v>0.1795381221607225</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1846097653858055</v>
+        <v>0.1776015662716964</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1823374978703269</v>
+        <v>0.1756468436275713</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1800419342872875</v>
+        <v>0.1736739072627749</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1777224503739206</v>
+        <v>0.1717161765692015</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1753774362882016</v>
+        <v>0.1697043044530567</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1730067212371585</v>
+        <v>0.1676723011417191</v>
       </c>
       <c r="U2" t="n">
-        <v>0.170514263772151</v>
+        <v>0.1655351154300651</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1682327931940254</v>
+        <v>0.1635831637140072</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1657764696397045</v>
+        <v>0.1614841550668595</v>
       </c>
       <c r="X2" t="n">
-        <v>0.163290554836132</v>
+        <v>0.1593624097422533</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1607737662672832</v>
+        <v>0.1572167180467155</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.1582097289840584</v>
+        <v>0.1550326864714897</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1555973149860418</v>
+        <v>0.1528096432176607</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.1530004935893888</v>
+        <v>0.150604827309599</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1497841396001842</v>
+        <v>0.1478633299726622</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.1469266750011343</v>
+        <v>0.1454736614932083</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.143979748883881</v>
+        <v>0.1430113853576912</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.1409543264234919</v>
+        <v>0.1404799226808856</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.1374157855373652</v>
+        <v>0.1375435782287094</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1342267242568138</v>
+        <v>0.1348889593527623</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.1309654524386941</v>
+        <v>0.1321788110622485</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.1279264492701438</v>
+        <v>0.1296781849521502</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.1246930218529305</v>
+        <v>0.1270137271967862</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.121277032406509</v>
+        <v>0.1241962945910223</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.1179190104691876</v>
+        <v>0.1214427678926285</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.1144128519554515</v>
+        <v>0.1185687510844571</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.1108795880156483</v>
+        <v>0.1157136884364747</v>
       </c>
     </row>
   </sheetData>
@@ -767,124 +767,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>41853771.21222207</v>
+        <v>40606558.85354342</v>
       </c>
       <c r="C2" t="n">
-        <v>41414661.96858937</v>
+        <v>40176044.93787691</v>
       </c>
       <c r="D2" t="n">
-        <v>40921481.71041086</v>
+        <v>39664647.95581724</v>
       </c>
       <c r="E2" t="n">
-        <v>40407083.46244355</v>
+        <v>39132638.32415584</v>
       </c>
       <c r="F2" t="n">
-        <v>39870019.03336112</v>
+        <v>38580003.43380344</v>
       </c>
       <c r="G2" t="n">
-        <v>39308023.95809019</v>
+        <v>38004567.46359455</v>
       </c>
       <c r="H2" t="n">
-        <v>38729823.9662069</v>
+        <v>37415192.0034181</v>
       </c>
       <c r="I2" t="n">
-        <v>38122819.1574332</v>
+        <v>36799297.00542932</v>
       </c>
       <c r="J2" t="n">
-        <v>37492089.42808383</v>
+        <v>36162371.50926306</v>
       </c>
       <c r="K2" t="n">
-        <v>36836919.38890597</v>
+        <v>35502937.77042942</v>
       </c>
       <c r="L2" t="n">
-        <v>36156763.96722516</v>
+        <v>34820621.5191949</v>
       </c>
       <c r="M2" t="n">
-        <v>35453010.74447596</v>
+        <v>34117585.78433874</v>
       </c>
       <c r="N2" t="n">
-        <v>34724445.41375669</v>
+        <v>33392155.40665015</v>
       </c>
       <c r="O2" t="n">
-        <v>33970820.29637452</v>
+        <v>32644110.11563312</v>
       </c>
       <c r="P2" t="n">
-        <v>33191732.1953842</v>
+        <v>31873072.80141725</v>
       </c>
       <c r="Q2" t="n">
-        <v>32386854.22585851</v>
+        <v>31078719.86643412</v>
       </c>
       <c r="R2" t="n">
-        <v>31555871.19447432</v>
+        <v>30259136.3841213</v>
       </c>
       <c r="S2" t="n">
-        <v>30698509.07000569</v>
+        <v>29417416.5929335</v>
       </c>
       <c r="T2" t="n">
-        <v>29814401.79734211</v>
+        <v>28551528.92215848</v>
       </c>
       <c r="U2" t="n">
-        <v>28906915.91393889</v>
+        <v>27664868.19288217</v>
       </c>
       <c r="V2" t="n">
-        <v>27962879.3848034</v>
+        <v>26744511.56650051</v>
       </c>
       <c r="W2" t="n">
-        <v>26996808.34233545</v>
+        <v>25804553.21178194</v>
       </c>
       <c r="X2" t="n">
-        <v>26002624.36091837</v>
+        <v>24839176.44380318</v>
       </c>
       <c r="Y2" t="n">
-        <v>24980013.52785868</v>
+        <v>23848090.83406191</v>
       </c>
       <c r="Z2" t="n">
-        <v>23929144.69216003</v>
+        <v>22831509.05223758</v>
       </c>
       <c r="AA2" t="n">
-        <v>22849576.33621717</v>
+        <v>21788999.74692441</v>
       </c>
       <c r="AB2" t="n">
-        <v>21739029.86357743</v>
+        <v>20718325.17611393</v>
       </c>
       <c r="AC2" t="n">
-        <v>20619438.58429888</v>
+        <v>19639761.10292811</v>
       </c>
       <c r="AD2" t="n">
-        <v>19469709.06429039</v>
+        <v>18530405.03056525</v>
       </c>
       <c r="AE2" t="n">
-        <v>18287510.39243278</v>
+        <v>17392198.81437674</v>
       </c>
       <c r="AF2" t="n">
-        <v>17071920.53533761</v>
+        <v>16224423.66664011</v>
       </c>
       <c r="AG2" t="n">
-        <v>15831116.19841104</v>
+        <v>15034056.90106695</v>
       </c>
       <c r="AH2" t="n">
-        <v>14546235.94979022</v>
+        <v>13804315.67064599</v>
       </c>
       <c r="AI2" t="n">
-        <v>13225943.76632334</v>
+        <v>12542924.86146615</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11865221.68251238</v>
+        <v>11244895.91452736</v>
       </c>
       <c r="AK2" t="n">
-        <v>10470626.43905042</v>
+        <v>9916814.64228376</v>
       </c>
       <c r="AL2" t="n">
-        <v>9040820.438226882</v>
+        <v>8557362.567783872</v>
       </c>
       <c r="AM2" t="n">
-        <v>7572384.851308377</v>
+        <v>7163133.549017903</v>
       </c>
       <c r="AN2" t="n">
-        <v>6067133.948471517</v>
+        <v>5735941.23493653</v>
       </c>
       <c r="AO2" t="n">
-        <v>4523479.186758451</v>
+        <v>4274007.111906134</v>
       </c>
     </row>
   </sheetData>
@@ -1033,124 +1033,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10887459.28600989</v>
+        <v>10596564.29609133</v>
       </c>
       <c r="C2" t="n">
-        <v>11759030.68559366</v>
+        <v>11391407.46789453</v>
       </c>
       <c r="D2" t="n">
-        <v>12695363.29479317</v>
+        <v>12286638.91639731</v>
       </c>
       <c r="E2" t="n">
-        <v>13654108.73316701</v>
+        <v>13204240.28359387</v>
       </c>
       <c r="F2" t="n">
-        <v>14634611.08588621</v>
+        <v>14141552.40462133</v>
       </c>
       <c r="G2" t="n">
-        <v>15636318.9513682</v>
+        <v>15097937.40232284</v>
       </c>
       <c r="H2" t="n">
-        <v>16663161.54494398</v>
+        <v>16077333.37207784</v>
       </c>
       <c r="I2" t="n">
-        <v>17710378.69189219</v>
+        <v>17074962.39702684</v>
       </c>
       <c r="J2" t="n">
-        <v>18780363.19679111</v>
+        <v>18093384.04632226</v>
       </c>
       <c r="K2" t="n">
-        <v>19873146.15602726</v>
+        <v>19132226.79723929</v>
       </c>
       <c r="L2" t="n">
-        <v>20988792.23681668</v>
+        <v>20191569.83059869</v>
       </c>
       <c r="M2" t="n">
-        <v>22128526.23104153</v>
+        <v>21273047.10633523</v>
       </c>
       <c r="N2" t="n">
-        <v>23292134.01482474</v>
+        <v>22376161.49311749</v>
       </c>
       <c r="O2" t="n">
-        <v>24479938.85634</v>
+        <v>23501215.9171775</v>
       </c>
       <c r="P2" t="n">
-        <v>25692162.40366061</v>
+        <v>24648410.923112</v>
       </c>
       <c r="Q2" t="n">
-        <v>26929076.28366944</v>
+        <v>25817977.92793569</v>
       </c>
       <c r="R2" t="n">
-        <v>28190965.35915174</v>
+        <v>27008724.97007291</v>
       </c>
       <c r="S2" t="n">
-        <v>29478160.48829536</v>
+        <v>28223836.91655128</v>
       </c>
       <c r="T2" t="n">
-        <v>30790917.24634646</v>
+        <v>29462142.01813234</v>
       </c>
       <c r="U2" t="n">
-        <v>32133635.49492448</v>
+        <v>30728016.85734569</v>
       </c>
       <c r="V2" t="n">
-        <v>33492185.81978237</v>
+        <v>32007588.49868682</v>
       </c>
       <c r="W2" t="n">
-        <v>34883558.18908729</v>
+        <v>33317295.55889339</v>
       </c>
       <c r="X2" t="n">
-        <v>36301668.20873801</v>
+        <v>34651300.88606995</v>
       </c>
       <c r="Y2" t="n">
-        <v>37746856.3466972</v>
+        <v>36009921.46999573</v>
       </c>
       <c r="Z2" t="n">
-        <v>39220275.94286731</v>
+        <v>37394318.77324229</v>
       </c>
       <c r="AA2" t="n">
-        <v>40722297.05751752</v>
+        <v>38804821.82712299</v>
       </c>
       <c r="AB2" t="n">
-        <v>42249726.47409159</v>
+        <v>40238250.14431702</v>
       </c>
       <c r="AC2" t="n">
-        <v>43849524.1416778</v>
+        <v>41737944.31826243</v>
       </c>
       <c r="AD2" t="n">
-        <v>45486612.71672829</v>
+        <v>43263502.53019947</v>
       </c>
       <c r="AE2" t="n">
-        <v>47158281.4614668</v>
+        <v>44820434.43322185</v>
       </c>
       <c r="AF2" t="n">
-        <v>48864325.9941288</v>
+        <v>46409010.26573829</v>
       </c>
       <c r="AG2" t="n">
-        <v>50633303.58511727</v>
+        <v>48053994.19680208</v>
       </c>
       <c r="AH2" t="n">
-        <v>52410568.53736202</v>
+        <v>49706886.62120233</v>
       </c>
       <c r="AI2" t="n">
-        <v>54222899.18474767</v>
+        <v>51391699.64771014</v>
       </c>
       <c r="AJ2" t="n">
-        <v>56049584.13608223</v>
+        <v>53087777.92422729</v>
       </c>
       <c r="AK2" t="n">
-        <v>57919483.59802627</v>
+        <v>54824045.47151433</v>
       </c>
       <c r="AL2" t="n">
-        <v>59832590.33403559</v>
+        <v>56600582.69796552</v>
       </c>
       <c r="AM2" t="n">
-        <v>61771053.15084276</v>
+        <v>58399669.80317769</v>
       </c>
       <c r="AN2" t="n">
-        <v>63750433.52109084</v>
+        <v>60236981.42791069</v>
       </c>
       <c r="AO2" t="n">
-        <v>65761384.77705894</v>
+        <v>62100547.94124687</v>
       </c>
     </row>
   </sheetData>
@@ -1299,124 +1299,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>222003453.3528674</v>
+        <v>243993620.9722312</v>
       </c>
       <c r="C2" t="n">
-        <v>221116254.0211139</v>
+        <v>243072354.1465551</v>
       </c>
       <c r="D2" t="n">
-        <v>220109667.1573474</v>
+        <v>242040898.4454769</v>
       </c>
       <c r="E2" t="n">
-        <v>219121269.2971957</v>
+        <v>241029030.5511183</v>
       </c>
       <c r="F2" t="n">
-        <v>218123962.9167943</v>
+        <v>240006810.4904067</v>
       </c>
       <c r="G2" t="n">
-        <v>217078393.3950308</v>
+        <v>238935412.9714801</v>
       </c>
       <c r="H2" t="n">
-        <v>216159721.1162085</v>
+        <v>237991757.1641979</v>
       </c>
       <c r="I2" t="n">
-        <v>215130702.5176001</v>
+        <v>236938665.8685743</v>
       </c>
       <c r="J2" t="n">
-        <v>214091006.0246543</v>
+        <v>235884165.303001</v>
       </c>
       <c r="K2" t="n">
-        <v>213032206.6890457</v>
+        <v>234803262.3587078</v>
       </c>
       <c r="L2" t="n">
-        <v>211947724.37626</v>
+        <v>233691776.8063088</v>
       </c>
       <c r="M2" t="n">
-        <v>210874959.1037112</v>
+        <v>232604204.592272</v>
       </c>
       <c r="N2" t="n">
-        <v>209792126.8982545</v>
+        <v>231507945.1500623</v>
       </c>
       <c r="O2" t="n">
-        <v>208701189.1560309</v>
+        <v>230405160.9798919</v>
       </c>
       <c r="P2" t="n">
-        <v>207599491.659941</v>
+        <v>229293049.8286888</v>
       </c>
       <c r="Q2" t="n">
-        <v>206486394.2652306</v>
+        <v>228170939.562166</v>
       </c>
       <c r="R2" t="n">
-        <v>205361400.1240839</v>
+        <v>226994849.1673355</v>
       </c>
       <c r="S2" t="n">
-        <v>204225018.0722068</v>
+        <v>225852816.7358615</v>
       </c>
       <c r="T2" t="n">
-        <v>203076275.54079</v>
+        <v>224700312.9295456</v>
       </c>
       <c r="U2" t="n">
-        <v>202023977.9829159</v>
+        <v>223646197.2325491</v>
       </c>
       <c r="V2" t="n">
-        <v>200684467.996347</v>
+        <v>222313452.092667</v>
       </c>
       <c r="W2" t="n">
-        <v>199498917.6626477</v>
+        <v>221130682.293314</v>
       </c>
       <c r="X2" t="n">
-        <v>198299847.1982676</v>
+        <v>219936518.8270682</v>
       </c>
       <c r="Y2" t="n">
-        <v>197086782.245348</v>
+        <v>218731209.6822841</v>
       </c>
       <c r="Z2" t="n">
-        <v>195876384.8685963</v>
+        <v>217531441.2131463</v>
       </c>
       <c r="AA2" t="n">
-        <v>194668346.3125054</v>
+        <v>216337154.9181213</v>
       </c>
       <c r="AB2" t="n">
-        <v>193385922.2628209</v>
+        <v>215071662.5386141</v>
       </c>
       <c r="AC2" t="n">
-        <v>192678333.2652796</v>
+        <v>214393227.2131723</v>
       </c>
       <c r="AD2" t="n">
-        <v>191231556.2139438</v>
+        <v>213002920.9402244</v>
       </c>
       <c r="AE2" t="n">
-        <v>189814096.1169263</v>
+        <v>211647685.5346672</v>
       </c>
       <c r="AF2" t="n">
-        <v>188409702.6315657</v>
+        <v>210320862.4647263</v>
       </c>
       <c r="AG2" t="n">
-        <v>187535496.4818976</v>
+        <v>209469507.5193576</v>
       </c>
       <c r="AH2" t="n">
-        <v>186156663.8153903</v>
+        <v>208173994.7163165</v>
       </c>
       <c r="AI2" t="n">
-        <v>184772120.0724596</v>
+        <v>206881611.3152173</v>
       </c>
       <c r="AJ2" t="n">
-        <v>183019580.0946495</v>
+        <v>205230663.5533944</v>
       </c>
       <c r="AK2" t="n">
-        <v>181397881.9221801</v>
+        <v>203721501.3192638</v>
       </c>
       <c r="AL2" t="n">
-        <v>179888092.8149428</v>
+        <v>202337021.9932182</v>
       </c>
       <c r="AM2" t="n">
-        <v>178190644.869693</v>
+        <v>200778775.5457539</v>
       </c>
       <c r="AN2" t="n">
-        <v>176550279.460995</v>
+        <v>199293350.3863148</v>
       </c>
       <c r="AO2" t="n">
-        <v>174809372.4317901</v>
+        <v>197684474.2226616</v>
       </c>
     </row>
   </sheetData>
@@ -1565,124 +1565,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>62700569.74153419</v>
+        <v>62698014.24766145</v>
       </c>
       <c r="C2" t="n">
-        <v>61217547.19720289</v>
+        <v>61215988.66444492</v>
       </c>
       <c r="D2" t="n">
-        <v>59717226.82532332</v>
+        <v>59715707.30942162</v>
       </c>
       <c r="E2" t="n">
-        <v>58216704.60946316</v>
+        <v>58215223.45880167</v>
       </c>
       <c r="F2" t="n">
-        <v>56716180.04077838</v>
+        <v>56714737.24680366</v>
       </c>
       <c r="G2" t="n">
-        <v>55215655.44615766</v>
+        <v>55214251.00783452</v>
       </c>
       <c r="H2" t="n">
-        <v>53715130.85287022</v>
+        <v>53713764.76917103</v>
       </c>
       <c r="I2" t="n">
-        <v>52214606.26137728</v>
+        <v>52213278.53118507</v>
       </c>
       <c r="J2" t="n">
-        <v>50714081.67184473</v>
+        <v>50712792.29394119</v>
       </c>
       <c r="K2" t="n">
-        <v>49213557.08445477</v>
+        <v>49212306.05750766</v>
       </c>
       <c r="L2" t="n">
-        <v>47713032.49941298</v>
+        <v>47711819.82196144</v>
       </c>
       <c r="M2" t="n">
-        <v>46212507.916952</v>
+        <v>46211333.58738944</v>
       </c>
       <c r="N2" t="n">
-        <v>44711983.33733626</v>
+        <v>44710847.35389032</v>
       </c>
       <c r="O2" t="n">
-        <v>43211458.76086766</v>
+        <v>43210361.12157659</v>
       </c>
       <c r="P2" t="n">
-        <v>41710934.18789238</v>
+        <v>41709874.89057706</v>
       </c>
       <c r="Q2" t="n">
-        <v>40210409.61880922</v>
+        <v>40209388.66103982</v>
       </c>
       <c r="R2" t="n">
-        <v>38709885.05408015</v>
+        <v>38708902.43313618</v>
       </c>
       <c r="S2" t="n">
-        <v>37209360.49424326</v>
+        <v>37208416.20706524</v>
       </c>
       <c r="T2" t="n">
-        <v>35708835.93992906</v>
+        <v>35707929.98305979</v>
       </c>
       <c r="U2" t="n">
-        <v>34208311.39188135</v>
+        <v>34207443.76139388</v>
       </c>
       <c r="V2" t="n">
-        <v>32707786.8509837</v>
+        <v>32706957.54239221</v>
       </c>
       <c r="W2" t="n">
-        <v>31207262.31829404</v>
+        <v>31206471.3264425</v>
       </c>
       <c r="X2" t="n">
-        <v>29706737.79508982</v>
+        <v>29705985.11401159</v>
       </c>
       <c r="Y2" t="n">
-        <v>28206213.28292806</v>
+        <v>28205498.90566653</v>
       </c>
       <c r="Z2" t="n">
-        <v>26705688.78372635</v>
+        <v>26705012.70210331</v>
       </c>
       <c r="AA2" t="n">
-        <v>25205164.29987343</v>
+        <v>25204526.50418526</v>
       </c>
       <c r="AB2" t="n">
-        <v>23704639.83438368</v>
+        <v>23704040.31299711</v>
       </c>
       <c r="AC2" t="n">
-        <v>22204115.39111593</v>
+        <v>22203554.12992027</v>
       </c>
       <c r="AD2" t="n">
-        <v>20703590.97509181</v>
+        <v>20703067.95674222</v>
       </c>
       <c r="AE2" t="n">
-        <v>19203066.59296912</v>
+        <v>19202581.79581712</v>
       </c>
       <c r="AF2" t="n">
-        <v>17702542.25376742</v>
+        <v>17702095.65030995</v>
       </c>
       <c r="AG2" t="n">
-        <v>16202017.97001727</v>
+        <v>16201609.52457847</v>
       </c>
       <c r="AH2" t="n">
-        <v>14701493.75965268</v>
+        <v>14701123.42479342</v>
       </c>
       <c r="AI2" t="n">
-        <v>13200969.64927569</v>
+        <v>13200637.35999098</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11700445.68011306</v>
+        <v>11700151.3439543</v>
       </c>
       <c r="AK2" t="n">
-        <v>10199921.91966764</v>
+        <v>10199665.39880201</v>
       </c>
       <c r="AL2" t="n">
-        <v>8699398.486620475</v>
+        <v>8699179.562411865</v>
       </c>
       <c r="AM2" t="n">
-        <v>7198875.610675367</v>
+        <v>7198693.905497286</v>
       </c>
       <c r="AN2" t="n">
-        <v>5698353.802012675</v>
+        <v>5698208.577033485</v>
       </c>
       <c r="AO2" t="n">
-        <v>4197812.565229042</v>
+        <v>4197713.27078113</v>
       </c>
     </row>
   </sheetData>
@@ -1831,124 +1831,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28527618.51901024</v>
+        <v>28617043.23493576</v>
       </c>
       <c r="C2" t="n">
-        <v>30401527.90101162</v>
+        <v>30358279.61551395</v>
       </c>
       <c r="D2" t="n">
-        <v>32403766.76308959</v>
+        <v>32353416.98378097</v>
       </c>
       <c r="E2" t="n">
-        <v>34407692.93624467</v>
+        <v>34356818.59186538</v>
       </c>
       <c r="F2" t="n">
-        <v>36411938.30806183</v>
+        <v>36360750.01452323</v>
       </c>
       <c r="G2" t="n">
-        <v>38416484.82477584</v>
+        <v>38364990.47683851</v>
       </c>
       <c r="H2" t="n">
-        <v>40421330.3443269</v>
+        <v>40369532.0323992</v>
       </c>
       <c r="I2" t="n">
-        <v>42426472.97972222</v>
+        <v>42374372.57870957</v>
       </c>
       <c r="J2" t="n">
-        <v>44431910.90446822</v>
+        <v>44379510.22788928</v>
       </c>
       <c r="K2" t="n">
-        <v>46437642.34795476</v>
+        <v>46384943.15414986</v>
       </c>
       <c r="L2" t="n">
-        <v>48443665.59332278</v>
+        <v>48390669.5876288</v>
       </c>
       <c r="M2" t="n">
-        <v>50449978.97544594</v>
+        <v>50396687.81218448</v>
       </c>
       <c r="N2" t="n">
-        <v>52456580.87899292</v>
+        <v>52402996.16337718</v>
       </c>
       <c r="O2" t="n">
-        <v>54463469.73656657</v>
+        <v>54409593.02653308</v>
       </c>
       <c r="P2" t="n">
-        <v>56470644.02691594</v>
+        <v>56416476.83488443</v>
       </c>
       <c r="Q2" t="n">
-        <v>58478102.27321878</v>
+        <v>58423646.06778339</v>
       </c>
       <c r="R2" t="n">
-        <v>60485843.04143102</v>
+        <v>60431099.24898552</v>
       </c>
       <c r="S2" t="n">
-        <v>62493864.93870015</v>
+        <v>62438834.94500048</v>
       </c>
       <c r="T2" t="n">
-        <v>64502166.61184074</v>
+        <v>64446851.76350699</v>
       </c>
       <c r="U2" t="n">
-        <v>66510746.74586781</v>
+        <v>66455148.35182861</v>
       </c>
       <c r="V2" t="n">
-        <v>68519604.0625875</v>
+        <v>68463723.39546904</v>
       </c>
       <c r="W2" t="n">
-        <v>70528737.31924127</v>
+        <v>70472575.61670327</v>
       </c>
       <c r="X2" t="n">
-        <v>72538145.30720162</v>
+        <v>72481703.77322276</v>
       </c>
       <c r="Y2" t="n">
-        <v>74547826.85071793</v>
+        <v>74491106.65683219</v>
       </c>
       <c r="Z2" t="n">
-        <v>76557780.80570926</v>
+        <v>76500783.09219609</v>
       </c>
       <c r="AA2" t="n">
-        <v>78568006.05860303</v>
+        <v>78510731.93563221</v>
       </c>
       <c r="AB2" t="n">
-        <v>80578501.52521709</v>
+        <v>80520952.07395142</v>
       </c>
       <c r="AC2" t="n">
-        <v>82589266.149684</v>
+        <v>82531442.4233399</v>
       </c>
       <c r="AD2" t="n">
-        <v>84600298.90341513</v>
+        <v>84542201.92828472</v>
       </c>
       <c r="AE2" t="n">
-        <v>86611598.78410377</v>
+        <v>86553229.56053823</v>
       </c>
       <c r="AF2" t="n">
-        <v>88623164.81476445</v>
+        <v>88564524.31812157</v>
       </c>
       <c r="AG2" t="n">
-        <v>90634996.04280877</v>
+        <v>90576085.22436513</v>
       </c>
       <c r="AH2" t="n">
-        <v>92647091.53915451</v>
+        <v>92587911.32698457</v>
       </c>
       <c r="AI2" t="n">
-        <v>94659450.39736772</v>
+        <v>94600001.6971904</v>
       </c>
       <c r="AJ2" t="n">
-        <v>96672071.73283623</v>
+        <v>96612355.42883074</v>
       </c>
       <c r="AK2" t="n">
-        <v>98684954.68197364</v>
+        <v>98624971.63756543</v>
       </c>
       <c r="AL2" t="n">
-        <v>100698098.4014518</v>
+        <v>100637849.4600701</v>
       </c>
       <c r="AM2" t="n">
-        <v>102711502.0674614</v>
+        <v>102650988.0532693</v>
       </c>
       <c r="AN2" t="n">
-        <v>104725164.8749994</v>
+        <v>104664386.5935974</v>
       </c>
       <c r="AO2" t="n">
-        <v>106739086.0371822</v>
+        <v>106678044.2762867</v>
       </c>
     </row>
   </sheetData>
@@ -2097,124 +2097,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>459911.5882751088</v>
+        <v>482362.663669707</v>
       </c>
       <c r="C2" t="n">
-        <v>464678.5994231241</v>
+        <v>486316.6906483461</v>
       </c>
       <c r="D2" t="n">
-        <v>469774.0009737627</v>
+        <v>490866.5484241481</v>
       </c>
       <c r="E2" t="n">
-        <v>474864.1084539118</v>
+        <v>495421.5795821508</v>
       </c>
       <c r="F2" t="n">
-        <v>479945.2744744715</v>
+        <v>499968.3713083194</v>
       </c>
       <c r="G2" t="n">
-        <v>485018.1290142612</v>
+        <v>504506.571107274</v>
       </c>
       <c r="H2" t="n">
-        <v>490082.3724363642</v>
+        <v>509036.2548924757</v>
       </c>
       <c r="I2" t="n">
-        <v>495137.5663019909</v>
+        <v>513557.3840805235</v>
       </c>
       <c r="J2" t="n">
-        <v>500184.6077102093</v>
+        <v>518070.0197831753</v>
       </c>
       <c r="K2" t="n">
-        <v>505223.0747096979</v>
+        <v>522574.1269675055</v>
       </c>
       <c r="L2" t="n">
-        <v>510252.5789684203</v>
+        <v>527069.7659048068</v>
       </c>
       <c r="M2" t="n">
-        <v>515273.8953572803</v>
+        <v>531556.8959306169</v>
       </c>
       <c r="N2" t="n">
-        <v>520286.648407157</v>
+        <v>536035.5782783093</v>
       </c>
       <c r="O2" t="n">
-        <v>525290.8443840347</v>
+        <v>540505.7675588301</v>
       </c>
       <c r="P2" t="n">
-        <v>530286.0243223547</v>
+        <v>544967.5275007349</v>
       </c>
       <c r="Q2" t="n">
-        <v>535273.0874603647</v>
+        <v>549420.8085867778</v>
       </c>
       <c r="R2" t="n">
-        <v>540251.5925011485</v>
+        <v>553865.6628101395</v>
       </c>
       <c r="S2" t="n">
-        <v>545221.5383336672</v>
+        <v>558302.0840739078</v>
       </c>
       <c r="T2" t="n">
-        <v>550182.9232890503</v>
+        <v>562730.0815271612</v>
       </c>
       <c r="U2" t="n">
-        <v>555135.7452211786</v>
+        <v>567149.6652213436</v>
       </c>
       <c r="V2" t="n">
-        <v>560079.4129509372</v>
+        <v>571561.3723549601</v>
       </c>
       <c r="W2" t="n">
-        <v>565015.0836286912</v>
+        <v>575963.6378257768</v>
       </c>
       <c r="X2" t="n">
-        <v>569942.1827190612</v>
+        <v>580358.550300034</v>
       </c>
       <c r="Y2" t="n">
-        <v>574860.7068480353</v>
+        <v>584744.1124359316</v>
       </c>
       <c r="Z2" t="n">
-        <v>579770.6524647822</v>
+        <v>589122.3020123009</v>
       </c>
       <c r="AA2" t="n">
-        <v>584672.0158781528</v>
+        <v>593491.2377058252</v>
       </c>
       <c r="AB2" t="n">
-        <v>589564.793290572</v>
+        <v>597852.8012856918</v>
       </c>
       <c r="AC2" t="n">
-        <v>595113.5321386589</v>
+        <v>602856.000589065</v>
       </c>
       <c r="AD2" t="n">
-        <v>602397.8258277861</v>
+        <v>609609.3876570067</v>
       </c>
       <c r="AE2" t="n">
-        <v>609682.7513951747</v>
+        <v>616363.7151955654</v>
       </c>
       <c r="AF2" t="n">
-        <v>616969.7387000931</v>
+        <v>623120.7100228127</v>
       </c>
       <c r="AG2" t="n">
-        <v>624258.0658095473</v>
+        <v>629878.7973100807</v>
       </c>
       <c r="AH2" t="n">
-        <v>631547.722612065</v>
+        <v>636639.6552247724</v>
       </c>
       <c r="AI2" t="n">
-        <v>638838.6990979477</v>
+        <v>643401.8174417011</v>
       </c>
       <c r="AJ2" t="n">
-        <v>646130.9852774238</v>
+        <v>650166.9376962403</v>
       </c>
       <c r="AK2" t="n">
-        <v>653424.5710785242</v>
+        <v>656934.4162797926</v>
       </c>
       <c r="AL2" t="n">
-        <v>660719.4459418542</v>
+        <v>663703.3439415274</v>
       </c>
       <c r="AM2" t="n">
-        <v>668015.5984085165</v>
+        <v>670476.1826825221</v>
       </c>
       <c r="AN2" t="n">
-        <v>675313.0144275411</v>
+        <v>677252.1889518817</v>
       </c>
       <c r="AO2" t="n">
-        <v>682618.6021052762</v>
+        <v>684040.3304260097</v>
       </c>
     </row>
   </sheetData>
@@ -2363,124 +2363,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>37149.12390566747</v>
+        <v>37344.85495299743</v>
       </c>
       <c r="C2" t="n">
-        <v>37084.599922068</v>
+        <v>37281.13395107725</v>
       </c>
       <c r="D2" t="n">
-        <v>37108.95507446278</v>
+        <v>37307.62034463695</v>
       </c>
       <c r="E2" t="n">
-        <v>37134.31600966713</v>
+        <v>37335.2204445881</v>
       </c>
       <c r="F2" t="n">
-        <v>37160.03721131486</v>
+        <v>37363.20345184344</v>
       </c>
       <c r="G2" t="n">
-        <v>37185.45686957385</v>
+        <v>37390.88258123765</v>
       </c>
       <c r="H2" t="n">
-        <v>37214.09514982707</v>
+        <v>37421.89765314888</v>
       </c>
       <c r="I2" t="n">
-        <v>37238.24749326084</v>
+        <v>37448.28935028577</v>
       </c>
       <c r="J2" t="n">
-        <v>37263.53955307315</v>
+        <v>37475.86074782228</v>
       </c>
       <c r="K2" t="n">
-        <v>37288.86825139444</v>
+        <v>37503.47608442345</v>
       </c>
       <c r="L2" t="n">
-        <v>37314.23448006982</v>
+        <v>37531.13812853453</v>
       </c>
       <c r="M2" t="n">
-        <v>37338.56999282632</v>
+        <v>37557.75229798025</v>
       </c>
       <c r="N2" t="n">
-        <v>37363.89117077318</v>
+        <v>37585.48468189748</v>
       </c>
       <c r="O2" t="n">
-        <v>37389.21556335709</v>
+        <v>37613.26319227781</v>
       </c>
       <c r="P2" t="n">
-        <v>37414.89056960541</v>
+        <v>37641.40744443369</v>
       </c>
       <c r="Q2" t="n">
-        <v>37440.2937079463</v>
+        <v>37669.25347168191</v>
       </c>
       <c r="R2" t="n">
-        <v>37465.73300909414</v>
+        <v>37697.02351293293</v>
       </c>
       <c r="S2" t="n">
-        <v>37491.52784249627</v>
+        <v>37725.15727190368</v>
       </c>
       <c r="T2" t="n">
-        <v>37517.04205970888</v>
+        <v>37753.00934757919</v>
       </c>
       <c r="U2" t="n">
-        <v>37542.91112931071</v>
+        <v>37781.22808291733</v>
       </c>
       <c r="V2" t="n">
-        <v>37568.49525735284</v>
+        <v>37809.17707975628</v>
       </c>
       <c r="W2" t="n">
-        <v>37596.00102058096</v>
+        <v>37839.04469691402</v>
       </c>
       <c r="X2" t="n">
-        <v>37621.54939194292</v>
+        <v>37866.97706540307</v>
       </c>
       <c r="Y2" t="n">
-        <v>37646.06911274484</v>
+        <v>37893.90498185523</v>
       </c>
       <c r="Z2" t="n">
-        <v>37671.70359003231</v>
+        <v>37921.95762896923</v>
       </c>
       <c r="AA2" t="n">
-        <v>37697.69294520342</v>
+        <v>37950.37173674008</v>
       </c>
       <c r="AB2" t="n">
-        <v>37723.68610487362</v>
+        <v>37978.81052259821</v>
       </c>
       <c r="AC2" t="n">
-        <v>37751.65989519074</v>
+        <v>38009.37184650249</v>
       </c>
       <c r="AD2" t="n">
-        <v>37786.16866072224</v>
+        <v>38046.99074579856</v>
       </c>
       <c r="AE2" t="n">
-        <v>37820.7359196543</v>
+        <v>38084.68801443155</v>
       </c>
       <c r="AF2" t="n">
-        <v>37855.03242247322</v>
+        <v>38122.15097055931</v>
       </c>
       <c r="AG2" t="n">
-        <v>37889.72047653252</v>
+        <v>38160.01297027444</v>
       </c>
       <c r="AH2" t="n">
-        <v>37924.26190337623</v>
+        <v>38197.77735495717</v>
       </c>
       <c r="AI2" t="n">
-        <v>37958.95942140071</v>
+        <v>38235.71254113995</v>
       </c>
       <c r="AJ2" t="n">
-        <v>37993.7092547849</v>
+        <v>38273.72162825376</v>
       </c>
       <c r="AK2" t="n">
-        <v>38028.50864674569</v>
+        <v>38311.81202284162</v>
       </c>
       <c r="AL2" t="n">
-        <v>38063.3544310431</v>
+        <v>38349.97898092225</v>
       </c>
       <c r="AM2" t="n">
-        <v>38098.24294971395</v>
+        <v>38388.23026518848</v>
       </c>
       <c r="AN2" t="n">
-        <v>38133.17003761099</v>
+        <v>38426.56098864418</v>
       </c>
       <c r="AO2" t="n">
-        <v>38168.34521715451</v>
+        <v>38465.24974300881</v>
       </c>
     </row>
   </sheetData>
@@ -2629,124 +2629,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481481.937427516</v>
+        <v>529267.938466841</v>
       </c>
       <c r="C2" t="n">
-        <v>472435.9823716945</v>
+        <v>521170.5826514959</v>
       </c>
       <c r="D2" t="n">
-        <v>463105.1250554788</v>
+        <v>512723.1024492177</v>
       </c>
       <c r="E2" t="n">
-        <v>453775.9087101932</v>
+        <v>504272.3301449526</v>
       </c>
       <c r="F2" t="n">
-        <v>444451.0186063719</v>
+        <v>495824.4390052861</v>
       </c>
       <c r="G2" t="n">
-        <v>435130.7872996599</v>
+        <v>487380.2565080971</v>
       </c>
       <c r="H2" t="n">
-        <v>425811.8517177159</v>
+        <v>478936.1127597907</v>
       </c>
       <c r="I2" t="n">
-        <v>416502.1462693716</v>
+        <v>470499.9823674237</v>
       </c>
       <c r="J2" t="n">
-        <v>407195.5750005345</v>
+        <v>462066.0380387022</v>
       </c>
       <c r="K2" t="n">
-        <v>397893.4621955069</v>
+        <v>453635.4294176681</v>
       </c>
       <c r="L2" t="n">
-        <v>388596.0105440891</v>
+        <v>445208.1298518114</v>
       </c>
       <c r="M2" t="n">
-        <v>379303.8820693255</v>
+        <v>436785.2500376562</v>
       </c>
       <c r="N2" t="n">
-        <v>370015.2572284152</v>
+        <v>428364.5996207516</v>
       </c>
       <c r="O2" t="n">
-        <v>360731.1151869936</v>
+        <v>419947.2686756975</v>
       </c>
       <c r="P2" t="n">
-        <v>351451.3491570425</v>
+        <v>411532.9123330865</v>
       </c>
       <c r="Q2" t="n">
-        <v>342176.1101977815</v>
+        <v>403122.2141820957</v>
       </c>
       <c r="R2" t="n">
-        <v>332905.3216267867</v>
+        <v>394714.9313801683</v>
       </c>
       <c r="S2" t="n">
-        <v>323638.6646570677</v>
+        <v>386310.6266396458</v>
       </c>
       <c r="T2" t="n">
-        <v>314376.7763119679</v>
+        <v>377909.9417359843</v>
       </c>
       <c r="U2" t="n">
-        <v>305119.0222480036</v>
+        <v>369512.2243430795</v>
       </c>
       <c r="V2" t="n">
-        <v>295866.3521826061</v>
+        <v>361117.8979802429</v>
       </c>
       <c r="W2" t="n">
-        <v>286615.9529071954</v>
+        <v>352725.3945010397</v>
       </c>
       <c r="X2" t="n">
-        <v>277372.0046468894</v>
+        <v>344337.740086247</v>
       </c>
       <c r="Y2" t="n">
-        <v>268133.580429195</v>
+        <v>335954.7954377641</v>
       </c>
       <c r="Z2" t="n">
-        <v>258898.5387085764</v>
+        <v>327573.6476266947</v>
       </c>
       <c r="AA2" t="n">
-        <v>249667.6412987076</v>
+        <v>319195.80544624</v>
       </c>
       <c r="AB2" t="n">
-        <v>240441.2412638373</v>
+        <v>310820.8599790859</v>
       </c>
       <c r="AC2" t="n">
-        <v>230868.9752223027</v>
+        <v>302189.5271641193</v>
       </c>
       <c r="AD2" t="n">
-        <v>220380.3159476478</v>
+        <v>292857.5794440962</v>
       </c>
       <c r="AE2" t="n">
-        <v>209891.2669197317</v>
+        <v>283525.1806688431</v>
       </c>
       <c r="AF2" t="n">
-        <v>199401.407789593</v>
+        <v>274191.9592237201</v>
       </c>
       <c r="AG2" t="n">
-        <v>188910.454720602</v>
+        <v>264857.9058193709</v>
       </c>
       <c r="AH2" t="n">
-        <v>178418.9511921158</v>
+        <v>255522.8520970223</v>
       </c>
       <c r="AI2" t="n">
-        <v>167926.5997332872</v>
+        <v>246187.1107095584</v>
       </c>
       <c r="AJ2" t="n">
-        <v>157433.5093570373</v>
+        <v>236850.123221981</v>
       </c>
       <c r="AK2" t="n">
-        <v>146939.6881003424</v>
+        <v>227512.1198778454</v>
       </c>
       <c r="AL2" t="n">
-        <v>136445.1446651667</v>
+        <v>218173.4657353748</v>
       </c>
       <c r="AM2" t="n">
-        <v>125949.8887167573</v>
+        <v>208833.1774000454</v>
       </c>
       <c r="AN2" t="n">
-        <v>115453.9317864321</v>
+        <v>199491.5544101957</v>
       </c>
       <c r="AO2" t="n">
-        <v>104953.4428023616</v>
+        <v>190144.7644995654</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane/Monte Carlo across lipid fraction.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane/Monte Carlo across lipid fraction.xlsx
@@ -501,124 +501,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2019703964623221</v>
+        <v>0.2091125939678202</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1997946610984878</v>
+        <v>0.2066932557497712</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1980292332702772</v>
+        <v>0.2046694047445952</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1962423390411821</v>
+        <v>0.2026474462877041</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1944441547853298</v>
+        <v>0.2006652630603289</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1926647317476596</v>
+        <v>0.1986110456362742</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1907626186208068</v>
+        <v>0.1964602734693125</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1889267858925082</v>
+        <v>0.1943837843105767</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1870700271278531</v>
+        <v>0.1922907426463831</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1852117056087377</v>
+        <v>0.1901461073820007</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1833544618062501</v>
+        <v>0.1880792372606578</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1814550418672991</v>
+        <v>0.1859328437720727</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1795381221607225</v>
+        <v>0.1837520636063373</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1776015662716964</v>
+        <v>0.1815658076343864</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1756468436275713</v>
+        <v>0.1791133245048027</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1736739072627749</v>
+        <v>0.1766044558715371</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1717161765692015</v>
+        <v>0.1740118695760746</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1697043044530567</v>
+        <v>0.1713936829766024</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1676723011417191</v>
+        <v>0.1687420525126566</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1655351154300651</v>
+        <v>0.1659601294447572</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1635831637140072</v>
+        <v>0.1633718757321657</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1614841550668595</v>
+        <v>0.1606005878324369</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1593624097422533</v>
+        <v>0.1577903384866304</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1572167180467155</v>
+        <v>0.1549238585892311</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.1550326864714897</v>
+        <v>0.1520724743176939</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1528096432176607</v>
+        <v>0.1491310943154919</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.150604827309599</v>
+        <v>0.1461430295131244</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1478633299726622</v>
+        <v>0.1425406238468137</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.1454736614932083</v>
+        <v>0.1394465349045881</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.1430113853576912</v>
+        <v>0.1362985474156587</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.1404799226808856</v>
+        <v>0.1331306020589326</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.1375435782287094</v>
+        <v>0.1293981202773312</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1348889593527623</v>
+        <v>0.1260218701975041</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.1321788110622485</v>
+        <v>0.1226334263551656</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.1296781849521502</v>
+        <v>0.1193453410273856</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.1270137271967862</v>
+        <v>0.1158584172883461</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.1241962945910223</v>
+        <v>0.1122103004177978</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.1214427678926285</v>
+        <v>0.1085313141211885</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.1185687510844571</v>
+        <v>0.1048152223839006</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.1157136884364747</v>
+        <v>0.1010146213336168</v>
       </c>
     </row>
   </sheetData>
@@ -767,124 +767,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>40606558.85354342</v>
+        <v>43083493.10279908</v>
       </c>
       <c r="C2" t="n">
-        <v>40176044.93787691</v>
+        <v>42624774.40239997</v>
       </c>
       <c r="D2" t="n">
-        <v>39664647.95581724</v>
+        <v>42085031.0789539</v>
       </c>
       <c r="E2" t="n">
-        <v>39132638.32415584</v>
+        <v>41521431.70985061</v>
       </c>
       <c r="F2" t="n">
-        <v>38580003.43380344</v>
+        <v>40932560.6012802</v>
       </c>
       <c r="G2" t="n">
-        <v>38004567.46359455</v>
+        <v>40324747.63608646</v>
       </c>
       <c r="H2" t="n">
-        <v>37415192.0034181</v>
+        <v>39698980.51951294</v>
       </c>
       <c r="I2" t="n">
-        <v>36799297.00542932</v>
+        <v>39045222.20578352</v>
       </c>
       <c r="J2" t="n">
-        <v>36162371.50926306</v>
+        <v>38368516.9894127</v>
       </c>
       <c r="K2" t="n">
-        <v>35502937.77042942</v>
+        <v>37670369.88994545</v>
       </c>
       <c r="L2" t="n">
-        <v>34820621.5191949</v>
+        <v>36943854.27248338</v>
       </c>
       <c r="M2" t="n">
-        <v>34117585.78433874</v>
+        <v>36196760.36374954</v>
       </c>
       <c r="N2" t="n">
-        <v>33392155.40665015</v>
+        <v>35426494.4935839</v>
       </c>
       <c r="O2" t="n">
-        <v>32644110.11563312</v>
+        <v>34631284.80278997</v>
       </c>
       <c r="P2" t="n">
-        <v>31873072.80141725</v>
+        <v>33862043.20288277</v>
       </c>
       <c r="Q2" t="n">
-        <v>31078719.86643412</v>
+        <v>33083938.06870405</v>
       </c>
       <c r="R2" t="n">
-        <v>30259136.3841213</v>
+        <v>32278741.15438469</v>
       </c>
       <c r="S2" t="n">
-        <v>29417416.5929335</v>
+        <v>31443395.19128241</v>
       </c>
       <c r="T2" t="n">
-        <v>28551528.92215848</v>
+        <v>30577793.91639009</v>
       </c>
       <c r="U2" t="n">
-        <v>27664868.19288217</v>
+        <v>29685289.91057292</v>
       </c>
       <c r="V2" t="n">
-        <v>26744511.56650051</v>
+        <v>28752841.80485959</v>
       </c>
       <c r="W2" t="n">
-        <v>25804553.21178194</v>
+        <v>27794637.69936267</v>
       </c>
       <c r="X2" t="n">
-        <v>24839176.44380318</v>
+        <v>26804515.69153693</v>
       </c>
       <c r="Y2" t="n">
-        <v>23848090.83406191</v>
+        <v>25782611.13905927</v>
       </c>
       <c r="Z2" t="n">
-        <v>22831509.05223758</v>
+        <v>24726155.82455923</v>
       </c>
       <c r="AA2" t="n">
-        <v>21788999.74692441</v>
+        <v>23638092.35861126</v>
       </c>
       <c r="AB2" t="n">
-        <v>20718325.17611393</v>
+        <v>22516484.28242682</v>
       </c>
       <c r="AC2" t="n">
-        <v>19639761.10292811</v>
+        <v>21376222.12731433</v>
       </c>
       <c r="AD2" t="n">
-        <v>18530405.03056525</v>
+        <v>20185465.72700774</v>
       </c>
       <c r="AE2" t="n">
-        <v>17392198.81437674</v>
+        <v>18959828.00996447</v>
       </c>
       <c r="AF2" t="n">
-        <v>16224423.66664011</v>
+        <v>17698045.96668022</v>
       </c>
       <c r="AG2" t="n">
-        <v>15034056.90106695</v>
+        <v>16411014.18351048</v>
       </c>
       <c r="AH2" t="n">
-        <v>13804315.67064599</v>
+        <v>15078237.59544125</v>
       </c>
       <c r="AI2" t="n">
-        <v>12542924.86146615</v>
+        <v>13707675.20475155</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11244895.91452736</v>
+        <v>12297381.8528059</v>
       </c>
       <c r="AK2" t="n">
-        <v>9916814.64228376</v>
+        <v>10851819.25698688</v>
       </c>
       <c r="AL2" t="n">
-        <v>8557362.567783872</v>
+        <v>9369361.538078805</v>
       </c>
       <c r="AM2" t="n">
-        <v>7163133.549017903</v>
+        <v>7847784.602309841</v>
       </c>
       <c r="AN2" t="n">
-        <v>5735941.23493653</v>
+        <v>6286954.76155526</v>
       </c>
       <c r="AO2" t="n">
-        <v>4274007.111906134</v>
+        <v>4686993.862917109</v>
       </c>
     </row>
   </sheetData>
@@ -1033,124 +1033,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10596564.29609133</v>
+        <v>11242901.63019848</v>
       </c>
       <c r="C2" t="n">
-        <v>11391407.46789453</v>
+        <v>12085748.48157212</v>
       </c>
       <c r="D2" t="n">
-        <v>12286638.91639731</v>
+        <v>13036421.60706239</v>
       </c>
       <c r="E2" t="n">
-        <v>13204240.28359387</v>
+        <v>14010310.72740575</v>
       </c>
       <c r="F2" t="n">
-        <v>14141552.40462133</v>
+        <v>15003920.79514541</v>
       </c>
       <c r="G2" t="n">
-        <v>15097937.40232284</v>
+        <v>16019698.5689812</v>
       </c>
       <c r="H2" t="n">
-        <v>16077333.37207784</v>
+        <v>17058704.48758332</v>
       </c>
       <c r="I2" t="n">
-        <v>17074962.39702684</v>
+        <v>18117094.4697115</v>
       </c>
       <c r="J2" t="n">
-        <v>18093384.04632226</v>
+        <v>19197207.47143846</v>
       </c>
       <c r="K2" t="n">
-        <v>19132226.79723929</v>
+        <v>20300230.05202375</v>
       </c>
       <c r="L2" t="n">
-        <v>20191569.83059869</v>
+        <v>21422753.05716349</v>
       </c>
       <c r="M2" t="n">
-        <v>21273047.10633523</v>
+        <v>22569412.82363607</v>
       </c>
       <c r="N2" t="n">
-        <v>22376161.49311749</v>
+        <v>23739308.7297059</v>
       </c>
       <c r="O2" t="n">
-        <v>23501215.9171775</v>
+        <v>24931730.89599964</v>
       </c>
       <c r="P2" t="n">
-        <v>24648410.923112</v>
+        <v>26186413.65624978</v>
       </c>
       <c r="Q2" t="n">
-        <v>25817977.92793569</v>
+        <v>27483604.62060729</v>
       </c>
       <c r="R2" t="n">
-        <v>27008724.97007291</v>
+        <v>28811178.28923435</v>
       </c>
       <c r="S2" t="n">
-        <v>28223836.91655128</v>
+        <v>30167359.13544921</v>
       </c>
       <c r="T2" t="n">
-        <v>29462142.01813234</v>
+        <v>31552724.52956158</v>
       </c>
       <c r="U2" t="n">
-        <v>30728016.85734569</v>
+        <v>32971779.95339684</v>
       </c>
       <c r="V2" t="n">
-        <v>32007588.49868682</v>
+        <v>34410707.882888</v>
       </c>
       <c r="W2" t="n">
-        <v>33317295.55889339</v>
+        <v>35886269.37010881</v>
       </c>
       <c r="X2" t="n">
-        <v>34651300.88606995</v>
+        <v>37392416.9138184</v>
       </c>
       <c r="Y2" t="n">
-        <v>36009921.46999573</v>
+        <v>38930320.11046083</v>
       </c>
       <c r="Z2" t="n">
-        <v>37394318.77324229</v>
+        <v>40496678.28792299</v>
       </c>
       <c r="AA2" t="n">
-        <v>38804821.82712299</v>
+        <v>42097069.41095516</v>
       </c>
       <c r="AB2" t="n">
-        <v>40238250.14431702</v>
+        <v>43729577.61011925</v>
       </c>
       <c r="AC2" t="n">
-        <v>41737944.31826243</v>
+        <v>45427126.51908755</v>
       </c>
       <c r="AD2" t="n">
-        <v>43263502.53019947</v>
+        <v>47126389.6610423</v>
       </c>
       <c r="AE2" t="n">
-        <v>44820434.43322185</v>
+        <v>48858906.75569647</v>
       </c>
       <c r="AF2" t="n">
-        <v>46409010.26573829</v>
+        <v>50622694.11233811</v>
       </c>
       <c r="AG2" t="n">
-        <v>48053994.19680208</v>
+        <v>52453531.53803577</v>
       </c>
       <c r="AH2" t="n">
-        <v>49706886.62120233</v>
+        <v>54292189.10199615</v>
       </c>
       <c r="AI2" t="n">
-        <v>51391699.64771014</v>
+        <v>56161941.67233646</v>
       </c>
       <c r="AJ2" t="n">
-        <v>53087777.92422729</v>
+        <v>58054374.47725069</v>
       </c>
       <c r="AK2" t="n">
-        <v>54824045.47151433</v>
+        <v>59990658.87686427</v>
       </c>
       <c r="AL2" t="n">
-        <v>56600582.69796552</v>
+        <v>61968667.1589648</v>
       </c>
       <c r="AM2" t="n">
-        <v>58399669.80317769</v>
+        <v>63978577.07773441</v>
       </c>
       <c r="AN2" t="n">
-        <v>60236981.42791069</v>
+        <v>66020369.54599024</v>
       </c>
       <c r="AO2" t="n">
-        <v>62100547.94124687</v>
+        <v>68097726.59508504</v>
       </c>
     </row>
   </sheetData>
@@ -1299,124 +1299,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>243993620.9722312</v>
+        <v>221007391.3777041</v>
       </c>
       <c r="C2" t="n">
-        <v>243072354.1465551</v>
+        <v>220116449.2580547</v>
       </c>
       <c r="D2" t="n">
-        <v>242040898.4454769</v>
+        <v>219161712.2679273</v>
       </c>
       <c r="E2" t="n">
-        <v>241029030.5511183</v>
+        <v>218196004.6670681</v>
       </c>
       <c r="F2" t="n">
-        <v>240006810.4904067</v>
+        <v>217160971.7316223</v>
       </c>
       <c r="G2" t="n">
-        <v>238935412.9714801</v>
+        <v>216179856.9501314</v>
       </c>
       <c r="H2" t="n">
-        <v>237991757.1641979</v>
+        <v>215279384.7058828</v>
       </c>
       <c r="I2" t="n">
-        <v>236938665.8685743</v>
+        <v>214268698.6560818</v>
       </c>
       <c r="J2" t="n">
-        <v>235884165.303001</v>
+        <v>213247604.750838</v>
       </c>
       <c r="K2" t="n">
-        <v>234803262.3587078</v>
+        <v>212255096.0591353</v>
       </c>
       <c r="L2" t="n">
-        <v>233691776.8063088</v>
+        <v>211143885.8644757</v>
       </c>
       <c r="M2" t="n">
-        <v>232604204.592272</v>
+        <v>210091172.4597183</v>
       </c>
       <c r="N2" t="n">
-        <v>231507945.1500623</v>
+        <v>209044428.8478411</v>
       </c>
       <c r="O2" t="n">
-        <v>230405160.9798919</v>
+        <v>207970260.9570352</v>
       </c>
       <c r="P2" t="n">
-        <v>229293049.8286888</v>
+        <v>206837708.1031746</v>
       </c>
       <c r="Q2" t="n">
-        <v>228170939.562166</v>
+        <v>205570310.0951459</v>
       </c>
       <c r="R2" t="n">
-        <v>226994849.1673355</v>
+        <v>204348256.5277688</v>
       </c>
       <c r="S2" t="n">
-        <v>225852816.7358615</v>
+        <v>203103237.7180417</v>
       </c>
       <c r="T2" t="n">
-        <v>224700312.9295456</v>
+        <v>201842462.1527129</v>
       </c>
       <c r="U2" t="n">
-        <v>223646197.2325491</v>
+        <v>200676034.9430104</v>
       </c>
       <c r="V2" t="n">
-        <v>222313452.092667</v>
+        <v>199226072.857657</v>
       </c>
       <c r="W2" t="n">
-        <v>221130682.293314</v>
+        <v>197926794.5585812</v>
       </c>
       <c r="X2" t="n">
-        <v>219936518.8270682</v>
+        <v>196609619.2665784</v>
       </c>
       <c r="Y2" t="n">
-        <v>218731209.6822841</v>
+        <v>195291877.1354296</v>
       </c>
       <c r="Z2" t="n">
-        <v>217531441.2131463</v>
+        <v>193886405.3310297</v>
       </c>
       <c r="AA2" t="n">
-        <v>216337154.9181213</v>
+        <v>192513810.9709556</v>
       </c>
       <c r="AB2" t="n">
-        <v>215071662.5386141</v>
+        <v>191120052.0245795</v>
       </c>
       <c r="AC2" t="n">
-        <v>214393227.2131723</v>
+        <v>190378982.1224909</v>
       </c>
       <c r="AD2" t="n">
-        <v>213002920.9402244</v>
+        <v>188949567.7255667</v>
       </c>
       <c r="AE2" t="n">
-        <v>211647685.5346672</v>
+        <v>187496193.5232089</v>
       </c>
       <c r="AF2" t="n">
-        <v>210320862.4647263</v>
+        <v>185973400.5641566</v>
       </c>
       <c r="AG2" t="n">
-        <v>209469507.5193576</v>
+        <v>185037969.0654366</v>
       </c>
       <c r="AH2" t="n">
-        <v>208173994.7163165</v>
+        <v>183567433.2741229</v>
       </c>
       <c r="AI2" t="n">
-        <v>206881611.3152173</v>
+        <v>182001407.3907987</v>
       </c>
       <c r="AJ2" t="n">
-        <v>205230663.5533944</v>
+        <v>180194010.3571981</v>
       </c>
       <c r="AK2" t="n">
-        <v>203721501.3192638</v>
+        <v>178506196.3473289</v>
       </c>
       <c r="AL2" t="n">
-        <v>202337021.9932182</v>
+        <v>176884992.9593617</v>
       </c>
       <c r="AM2" t="n">
-        <v>200778775.5457539</v>
+        <v>175160616.7391633</v>
       </c>
       <c r="AN2" t="n">
-        <v>199293350.3863148</v>
+        <v>173330494.9559898</v>
       </c>
       <c r="AO2" t="n">
-        <v>197684474.2226616</v>
+        <v>171438137.2231182</v>
       </c>
     </row>
   </sheetData>
@@ -1565,124 +1565,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>62698014.24766145</v>
+        <v>62698014.24533018</v>
       </c>
       <c r="C2" t="n">
-        <v>61215988.66444492</v>
+        <v>61215988.6621982</v>
       </c>
       <c r="D2" t="n">
-        <v>59715707.30942162</v>
+        <v>59715707.30722977</v>
       </c>
       <c r="E2" t="n">
-        <v>58215223.45880167</v>
+        <v>58215223.45666467</v>
       </c>
       <c r="F2" t="n">
-        <v>56714737.24680366</v>
+        <v>56714737.24472152</v>
       </c>
       <c r="G2" t="n">
-        <v>55214251.00783452</v>
+        <v>55214251.00580723</v>
       </c>
       <c r="H2" t="n">
-        <v>53713764.76917103</v>
+        <v>53713764.76719859</v>
       </c>
       <c r="I2" t="n">
-        <v>52213278.53118507</v>
+        <v>52213278.52926748</v>
       </c>
       <c r="J2" t="n">
-        <v>50712792.29394119</v>
+        <v>50712792.29207847</v>
       </c>
       <c r="K2" t="n">
-        <v>49212306.05750766</v>
+        <v>49212306.0556998</v>
       </c>
       <c r="L2" t="n">
-        <v>47711819.82196144</v>
+        <v>47711819.82020843</v>
       </c>
       <c r="M2" t="n">
-        <v>46211333.58738944</v>
+        <v>46211333.58569127</v>
       </c>
       <c r="N2" t="n">
-        <v>44710847.35389032</v>
+        <v>44710847.35224701</v>
       </c>
       <c r="O2" t="n">
-        <v>43210361.12157659</v>
+        <v>43210361.11998813</v>
       </c>
       <c r="P2" t="n">
-        <v>41709874.89057706</v>
+        <v>41709874.88904344</v>
       </c>
       <c r="Q2" t="n">
-        <v>40209388.66103982</v>
+        <v>40209388.65956107</v>
       </c>
       <c r="R2" t="n">
-        <v>38708902.43313618</v>
+        <v>38708902.43171227</v>
       </c>
       <c r="S2" t="n">
-        <v>37208416.20706524</v>
+        <v>37208416.20569619</v>
       </c>
       <c r="T2" t="n">
-        <v>35707929.98305979</v>
+        <v>35707929.98174558</v>
       </c>
       <c r="U2" t="n">
-        <v>34207443.76139388</v>
+        <v>34207443.76013453</v>
       </c>
       <c r="V2" t="n">
-        <v>32706957.54239221</v>
+        <v>32706957.5411877</v>
       </c>
       <c r="W2" t="n">
-        <v>31206471.3264425</v>
+        <v>31206471.32529285</v>
       </c>
       <c r="X2" t="n">
-        <v>29705985.11401159</v>
+        <v>29705985.11291678</v>
       </c>
       <c r="Y2" t="n">
-        <v>28205498.90566653</v>
+        <v>28205498.90462658</v>
       </c>
       <c r="Z2" t="n">
-        <v>26705012.70210331</v>
+        <v>26705012.70111819</v>
       </c>
       <c r="AA2" t="n">
-        <v>25204526.50418526</v>
+        <v>25204526.503255</v>
       </c>
       <c r="AB2" t="n">
-        <v>23704040.31299711</v>
+        <v>23704040.31212169</v>
       </c>
       <c r="AC2" t="n">
-        <v>22203554.12992027</v>
+        <v>22203554.1290997</v>
       </c>
       <c r="AD2" t="n">
-        <v>20703067.95674222</v>
+        <v>20703067.95597648</v>
       </c>
       <c r="AE2" t="n">
-        <v>19202581.79581712</v>
+        <v>19202581.79510623</v>
       </c>
       <c r="AF2" t="n">
-        <v>17702095.65030995</v>
+        <v>17702095.6496539</v>
       </c>
       <c r="AG2" t="n">
-        <v>16201609.52457847</v>
+        <v>16201609.52397725</v>
       </c>
       <c r="AH2" t="n">
-        <v>14701123.42479342</v>
+        <v>14701123.42424703</v>
       </c>
       <c r="AI2" t="n">
-        <v>13200637.35999098</v>
+        <v>13200637.35949941</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11700151.3439543</v>
+        <v>11700151.34351754</v>
       </c>
       <c r="AK2" t="n">
-        <v>10199665.39880201</v>
+        <v>10199665.39842007</v>
       </c>
       <c r="AL2" t="n">
-        <v>8699179.562411865</v>
+        <v>8699179.562084703</v>
       </c>
       <c r="AM2" t="n">
-        <v>7198693.905497286</v>
+        <v>7198693.905224881</v>
       </c>
       <c r="AN2" t="n">
-        <v>5698208.577033485</v>
+        <v>5698208.576815789</v>
       </c>
       <c r="AO2" t="n">
-        <v>4197713.27078113</v>
+        <v>4197713.270622545</v>
       </c>
     </row>
   </sheetData>
@@ -1831,124 +1831,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28617043.23493576</v>
+        <v>28616951.84021423</v>
       </c>
       <c r="C2" t="n">
-        <v>30358279.61551395</v>
+        <v>30358367.18735384</v>
       </c>
       <c r="D2" t="n">
-        <v>32353416.98378097</v>
+        <v>32353510.39785637</v>
       </c>
       <c r="E2" t="n">
-        <v>34356818.59186538</v>
+        <v>34356910.16272887</v>
       </c>
       <c r="F2" t="n">
-        <v>36360750.01452323</v>
+        <v>36360835.75627784</v>
       </c>
       <c r="G2" t="n">
-        <v>38364990.47683851</v>
+        <v>38365066.05829118</v>
       </c>
       <c r="H2" t="n">
-        <v>40369532.0323992</v>
+        <v>40369592.71222391</v>
       </c>
       <c r="I2" t="n">
-        <v>42374372.57870957</v>
+        <v>42374413.2114974</v>
       </c>
       <c r="J2" t="n">
-        <v>44379510.22788928</v>
+        <v>44379525.2712931</v>
       </c>
       <c r="K2" t="n">
-        <v>46384943.15414986</v>
+        <v>46384926.67594286</v>
       </c>
       <c r="L2" t="n">
-        <v>48390669.5876288</v>
+        <v>48390615.27265561</v>
       </c>
       <c r="M2" t="n">
-        <v>50396687.81218448</v>
+        <v>50396588.96920459</v>
       </c>
       <c r="N2" t="n">
-        <v>52402996.16337718</v>
+        <v>52402845.73180142</v>
       </c>
       <c r="O2" t="n">
-        <v>54409593.02653308</v>
+        <v>54409383.58305296</v>
       </c>
       <c r="P2" t="n">
-        <v>56416476.83488443</v>
+        <v>56416200.59999557</v>
       </c>
       <c r="Q2" t="n">
-        <v>58423646.06778339</v>
+        <v>58423294.91220319</v>
       </c>
       <c r="R2" t="n">
-        <v>60431099.24898552</v>
+        <v>60430664.69996617</v>
       </c>
       <c r="S2" t="n">
-        <v>62438834.94500048</v>
+        <v>62438308.19253775</v>
       </c>
       <c r="T2" t="n">
-        <v>64446851.76350699</v>
+        <v>64446223.66644599</v>
       </c>
       <c r="U2" t="n">
-        <v>66455148.35182861</v>
+        <v>66454409.44386743</v>
       </c>
       <c r="V2" t="n">
-        <v>68463723.39546904</v>
+        <v>68462863.89106093</v>
       </c>
       <c r="W2" t="n">
-        <v>70472575.61670327</v>
+        <v>70471585.41685876</v>
       </c>
       <c r="X2" t="n">
-        <v>72481703.77322276</v>
+        <v>72480572.47121242</v>
       </c>
       <c r="Y2" t="n">
-        <v>74491106.65683219</v>
+        <v>74489823.54379164</v>
       </c>
       <c r="Z2" t="n">
-        <v>76500783.09219609</v>
+        <v>76499337.16263357</v>
       </c>
       <c r="AA2" t="n">
-        <v>78510731.93563221</v>
+        <v>78509111.89284079</v>
       </c>
       <c r="AB2" t="n">
-        <v>80520952.07395142</v>
+        <v>80519146.33532597</v>
       </c>
       <c r="AC2" t="n">
-        <v>82531442.4233399</v>
+        <v>82529439.12560128</v>
       </c>
       <c r="AD2" t="n">
-        <v>84542201.92828472</v>
+        <v>84539988.93261075</v>
       </c>
       <c r="AE2" t="n">
-        <v>86553229.56053823</v>
+        <v>86550794.45760413</v>
       </c>
       <c r="AF2" t="n">
-        <v>88564524.31812157</v>
+        <v>88561854.4330503</v>
       </c>
       <c r="AG2" t="n">
-        <v>90576085.22436513</v>
+        <v>90573167.62158881</v>
       </c>
       <c r="AH2" t="n">
-        <v>92587911.32698457</v>
+        <v>92584732.8150184</v>
       </c>
       <c r="AI2" t="n">
-        <v>94600001.6971904</v>
+        <v>94596548.83331999</v>
       </c>
       <c r="AJ2" t="n">
-        <v>96612355.42883074</v>
+        <v>96608614.52371463</v>
       </c>
       <c r="AK2" t="n">
-        <v>98624971.63756543</v>
+        <v>98620928.75975306</v>
       </c>
       <c r="AL2" t="n">
-        <v>100637849.4600701</v>
+        <v>100633490.4404374</v>
       </c>
       <c r="AM2" t="n">
-        <v>102650988.0532693</v>
+        <v>102646298.4893721</v>
       </c>
       <c r="AN2" t="n">
-        <v>104664386.5935974</v>
+        <v>104659351.8539449</v>
       </c>
       <c r="AO2" t="n">
-        <v>106678044.2762867</v>
+        <v>106672649.5045346</v>
       </c>
     </row>
   </sheetData>
@@ -2097,124 +2097,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>482362.663669707</v>
+        <v>508116.3481488888</v>
       </c>
       <c r="C2" t="n">
-        <v>486316.6906483461</v>
+        <v>511596.9552866414</v>
       </c>
       <c r="D2" t="n">
-        <v>490866.5484241481</v>
+        <v>515646.5024172795</v>
       </c>
       <c r="E2" t="n">
-        <v>495421.5795821508</v>
+        <v>519693.3581761105</v>
       </c>
       <c r="F2" t="n">
-        <v>499968.3713083194</v>
+        <v>523720.9058515081</v>
       </c>
       <c r="G2" t="n">
-        <v>504506.571107274</v>
+        <v>527731.3085585167</v>
       </c>
       <c r="H2" t="n">
-        <v>509036.2548924757</v>
+        <v>531722.0703188495</v>
       </c>
       <c r="I2" t="n">
-        <v>513557.3840805235</v>
+        <v>535698.6379353412</v>
       </c>
       <c r="J2" t="n">
-        <v>518070.0197831753</v>
+        <v>539658.678652573</v>
       </c>
       <c r="K2" t="n">
-        <v>522574.1269675055</v>
+        <v>543602.1030909602</v>
       </c>
       <c r="L2" t="n">
-        <v>527069.7659048068</v>
+        <v>547532.4471254472</v>
       </c>
       <c r="M2" t="n">
-        <v>531556.8959306169</v>
+        <v>551447.2842327243</v>
       </c>
       <c r="N2" t="n">
-        <v>536035.5782783093</v>
+        <v>555349.36254089</v>
       </c>
       <c r="O2" t="n">
-        <v>540505.7675588301</v>
+        <v>559237.4868259723</v>
       </c>
       <c r="P2" t="n">
-        <v>544967.5275007349</v>
+        <v>565814.4278148129</v>
       </c>
       <c r="Q2" t="n">
-        <v>549420.8085867778</v>
+        <v>573650.175001051</v>
       </c>
       <c r="R2" t="n">
-        <v>553865.6628101395</v>
+        <v>581487.9815351547</v>
       </c>
       <c r="S2" t="n">
-        <v>558302.0840739078</v>
+        <v>589327.5167632813</v>
       </c>
       <c r="T2" t="n">
-        <v>562730.0815271612</v>
+        <v>597168.8182520373</v>
       </c>
       <c r="U2" t="n">
-        <v>567149.6652213436</v>
+        <v>605011.842075737</v>
       </c>
       <c r="V2" t="n">
-        <v>571561.3723549601</v>
+        <v>612856.9477204672</v>
       </c>
       <c r="W2" t="n">
-        <v>575963.6378257768</v>
+        <v>620703.4662725813</v>
       </c>
       <c r="X2" t="n">
-        <v>580358.550300034</v>
+        <v>628551.7145109234</v>
       </c>
       <c r="Y2" t="n">
-        <v>584744.1124359316</v>
+        <v>636402.0868682435</v>
       </c>
       <c r="Z2" t="n">
-        <v>589122.3020123009</v>
+        <v>644254.0532006806</v>
       </c>
       <c r="AA2" t="n">
-        <v>593491.2377058252</v>
+        <v>652107.8069987507</v>
       </c>
       <c r="AB2" t="n">
-        <v>597852.8012856918</v>
+        <v>659963.5530790304</v>
       </c>
       <c r="AC2" t="n">
-        <v>602856.000589065</v>
+        <v>667821.1401789187</v>
       </c>
       <c r="AD2" t="n">
-        <v>609609.3876570067</v>
+        <v>675680.5755174867</v>
       </c>
       <c r="AE2" t="n">
-        <v>616363.7151955654</v>
+        <v>683541.9240768565</v>
       </c>
       <c r="AF2" t="n">
-        <v>623120.7100228127</v>
+        <v>691405.2343003921</v>
       </c>
       <c r="AG2" t="n">
-        <v>629878.7973100807</v>
+        <v>699270.5489058823</v>
       </c>
       <c r="AH2" t="n">
-        <v>636639.6552247724</v>
+        <v>707137.949351254</v>
       </c>
       <c r="AI2" t="n">
-        <v>643401.8174417011</v>
+        <v>715007.5369468953</v>
       </c>
       <c r="AJ2" t="n">
-        <v>650166.9376962403</v>
+        <v>722879.4386264215</v>
       </c>
       <c r="AK2" t="n">
-        <v>656934.4162797926</v>
+        <v>730753.7920594901</v>
       </c>
       <c r="AL2" t="n">
-        <v>663703.3439415274</v>
+        <v>738630.8172940994</v>
       </c>
       <c r="AM2" t="n">
-        <v>670476.1826825221</v>
+        <v>746510.7591555907</v>
       </c>
       <c r="AN2" t="n">
-        <v>677252.1889518817</v>
+        <v>754394.4916554077</v>
       </c>
       <c r="AO2" t="n">
-        <v>684040.3304260097</v>
+        <v>762304.174870451</v>
       </c>
     </row>
   </sheetData>
@@ -2363,124 +2363,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>37344.85495299743</v>
+        <v>37309.55563922711</v>
       </c>
       <c r="C2" t="n">
-        <v>37281.13395107725</v>
+        <v>37242.21342560915</v>
       </c>
       <c r="D2" t="n">
-        <v>37307.62034463695</v>
+        <v>37264.55932220446</v>
       </c>
       <c r="E2" t="n">
-        <v>37335.2204445881</v>
+        <v>37287.98095881034</v>
       </c>
       <c r="F2" t="n">
-        <v>37363.20345184344</v>
+        <v>37311.73884058419</v>
       </c>
       <c r="G2" t="n">
-        <v>37390.88258123765</v>
+        <v>37335.15505348261</v>
       </c>
       <c r="H2" t="n">
-        <v>37421.89765314888</v>
+        <v>37361.86019066911</v>
       </c>
       <c r="I2" t="n">
-        <v>37448.28935028577</v>
+        <v>37383.91428191205</v>
       </c>
       <c r="J2" t="n">
-        <v>37475.86074782228</v>
+        <v>37407.11182378576</v>
       </c>
       <c r="K2" t="n">
-        <v>37503.47608442345</v>
+        <v>37430.31672882939</v>
       </c>
       <c r="L2" t="n">
-        <v>37531.13812853453</v>
+        <v>37453.54406692411</v>
       </c>
       <c r="M2" t="n">
-        <v>37557.75229798025</v>
+        <v>37475.6906796558</v>
       </c>
       <c r="N2" t="n">
-        <v>37585.48468189748</v>
+        <v>37498.93207285459</v>
       </c>
       <c r="O2" t="n">
-        <v>37613.26319227781</v>
+        <v>37522.19201140554</v>
       </c>
       <c r="P2" t="n">
-        <v>37641.40744443369</v>
+        <v>37555.36540866306</v>
       </c>
       <c r="Q2" t="n">
-        <v>37669.25347168191</v>
+        <v>37592.7220154967</v>
       </c>
       <c r="R2" t="n">
-        <v>37697.02351293293</v>
+        <v>37630.03130389686</v>
       </c>
       <c r="S2" t="n">
-        <v>37725.15727190368</v>
+        <v>37667.7317309698</v>
       </c>
       <c r="T2" t="n">
-        <v>37753.00934757919</v>
+        <v>37705.17791641594</v>
       </c>
       <c r="U2" t="n">
-        <v>37781.22808291733</v>
+        <v>37743.01793242284</v>
       </c>
       <c r="V2" t="n">
-        <v>37809.17707975628</v>
+        <v>37780.6145304015</v>
       </c>
       <c r="W2" t="n">
-        <v>37839.04469691402</v>
+        <v>37820.1595800514</v>
       </c>
       <c r="X2" t="n">
-        <v>37866.97706540307</v>
+        <v>37857.79230916595</v>
       </c>
       <c r="Y2" t="n">
-        <v>37893.90498185523</v>
+        <v>37894.45243975521</v>
       </c>
       <c r="Z2" t="n">
-        <v>37921.95762896923</v>
+        <v>37932.25967470845</v>
       </c>
       <c r="AA2" t="n">
-        <v>37950.37173674008</v>
+        <v>37970.45851772794</v>
       </c>
       <c r="AB2" t="n">
-        <v>37978.81052259821</v>
+        <v>38008.70576880933</v>
       </c>
       <c r="AC2" t="n">
-        <v>38009.37184650249</v>
+        <v>38046.62819924536</v>
       </c>
       <c r="AD2" t="n">
-        <v>38046.99074579856</v>
+        <v>38084.94141707646</v>
       </c>
       <c r="AE2" t="n">
-        <v>38084.68801443155</v>
+        <v>38123.32451321105</v>
       </c>
       <c r="AF2" t="n">
-        <v>38122.15097055931</v>
+        <v>38161.45833620753</v>
       </c>
       <c r="AG2" t="n">
-        <v>38160.01297027444</v>
+        <v>38199.98232005047</v>
       </c>
       <c r="AH2" t="n">
-        <v>38197.77735495717</v>
+        <v>38238.39364017073</v>
       </c>
       <c r="AI2" t="n">
-        <v>38235.71254113995</v>
+        <v>38276.96658642426</v>
       </c>
       <c r="AJ2" t="n">
-        <v>38273.72162825376</v>
+        <v>38315.59834917867</v>
       </c>
       <c r="AK2" t="n">
-        <v>38311.81202284162</v>
+        <v>38354.29903975892</v>
       </c>
       <c r="AL2" t="n">
-        <v>38349.97898092225</v>
+        <v>38393.06809042851</v>
       </c>
       <c r="AM2" t="n">
-        <v>38388.23026518848</v>
+        <v>38431.90469658244</v>
       </c>
       <c r="AN2" t="n">
-        <v>38426.56098864418</v>
+        <v>38470.80983491122</v>
       </c>
       <c r="AO2" t="n">
-        <v>38465.24974300881</v>
+        <v>38510.10641426516</v>
       </c>
     </row>
   </sheetData>
@@ -2629,124 +2629,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>529267.938466841</v>
+        <v>456050.3371866837</v>
       </c>
       <c r="C2" t="n">
-        <v>521170.5826514959</v>
+        <v>447681.5929436236</v>
       </c>
       <c r="D2" t="n">
-        <v>512723.1024492177</v>
+        <v>438901.0302257984</v>
       </c>
       <c r="E2" t="n">
-        <v>504272.3301449526</v>
+        <v>430120.6740664667</v>
       </c>
       <c r="F2" t="n">
-        <v>495824.4390052861</v>
+        <v>421350.1028343915</v>
       </c>
       <c r="G2" t="n">
-        <v>487380.2565080971</v>
+        <v>412588.8614483876</v>
       </c>
       <c r="H2" t="n">
-        <v>478936.1127597907</v>
+        <v>403834.6278322384</v>
       </c>
       <c r="I2" t="n">
-        <v>470499.9823674237</v>
+        <v>395092.4864898644</v>
       </c>
       <c r="J2" t="n">
-        <v>462066.0380387022</v>
+        <v>386357.8658631613</v>
       </c>
       <c r="K2" t="n">
-        <v>453635.4294176681</v>
+        <v>377631.9488965101</v>
       </c>
       <c r="L2" t="n">
-        <v>445208.1298518114</v>
+        <v>368912.8668505623</v>
       </c>
       <c r="M2" t="n">
-        <v>436785.2500376562</v>
+        <v>360202.9949796748</v>
       </c>
       <c r="N2" t="n">
-        <v>428364.5996207516</v>
+        <v>351498.7170819436</v>
       </c>
       <c r="O2" t="n">
-        <v>419947.2686756975</v>
+        <v>342801.7359842669</v>
       </c>
       <c r="P2" t="n">
-        <v>411532.9123330865</v>
+        <v>332685.2391358324</v>
       </c>
       <c r="Q2" t="n">
-        <v>403122.2141820957</v>
+        <v>321904.6345472205</v>
       </c>
       <c r="R2" t="n">
-        <v>394714.9313801683</v>
+        <v>311122.9976714797</v>
       </c>
       <c r="S2" t="n">
-        <v>386310.6266396458</v>
+        <v>300340.0633955666</v>
       </c>
       <c r="T2" t="n">
-        <v>377909.9417359843</v>
+        <v>289556.4574056256</v>
       </c>
       <c r="U2" t="n">
-        <v>369512.2243430795</v>
+        <v>278771.5546573484</v>
       </c>
       <c r="V2" t="n">
-        <v>361117.8979802429</v>
+        <v>267985.8039400625</v>
       </c>
       <c r="W2" t="n">
-        <v>352725.3945010397</v>
+        <v>257197.3640595927</v>
       </c>
       <c r="X2" t="n">
-        <v>344337.740086247</v>
+        <v>246409.9297179993</v>
       </c>
       <c r="Y2" t="n">
-        <v>335954.7954377641</v>
+        <v>235622.3544133504</v>
       </c>
       <c r="Z2" t="n">
-        <v>327573.6476266947</v>
+        <v>224832.7963687303</v>
       </c>
       <c r="AA2" t="n">
-        <v>319195.80544624</v>
+        <v>214041.9096437438</v>
       </c>
       <c r="AB2" t="n">
-        <v>310820.8599790859</v>
+        <v>203249.9300640563</v>
       </c>
       <c r="AC2" t="n">
-        <v>302189.5271641193</v>
+        <v>192457.3101572387</v>
       </c>
       <c r="AD2" t="n">
-        <v>292857.5794440962</v>
+        <v>181663.3305306796</v>
       </c>
       <c r="AE2" t="n">
-        <v>283525.1806688431</v>
+        <v>170868.2780268306</v>
       </c>
       <c r="AF2" t="n">
-        <v>274191.9592237201</v>
+        <v>160072.4464008779</v>
       </c>
       <c r="AG2" t="n">
-        <v>264857.9058193709</v>
+        <v>149275.1738241932</v>
       </c>
       <c r="AH2" t="n">
-        <v>255522.8520970223</v>
+        <v>138476.9204173253</v>
       </c>
       <c r="AI2" t="n">
-        <v>246187.1107095584</v>
+        <v>127677.3587788203</v>
       </c>
       <c r="AJ2" t="n">
-        <v>236850.123221981</v>
+        <v>116876.5251738275</v>
       </c>
       <c r="AK2" t="n">
-        <v>227512.1198778454</v>
+        <v>106074.3373182095</v>
       </c>
       <c r="AL2" t="n">
-        <v>218173.4657353748</v>
+        <v>95270.68042034714</v>
       </c>
       <c r="AM2" t="n">
-        <v>208833.1774000454</v>
+        <v>84465.42693605763</v>
       </c>
       <c r="AN2" t="n">
-        <v>199491.5544101957</v>
+        <v>73658.11769135881</v>
       </c>
       <c r="AO2" t="n">
-        <v>190144.7644995654</v>
+        <v>62836.8124383867</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane/Monte Carlo across lipid fraction.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane/Monte Carlo across lipid fraction.xlsx
@@ -379,121 +379,121 @@
         <v>0.15</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>0.1464102564102564</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>0.1428205128205128</v>
+        <v>0.1433333333333333</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>0.1392307692307692</v>
+        <v>0.14</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>0.1356410256410256</v>
+        <v>0.1366666666666667</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>0.1320512820512821</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>0.1284615384615385</v>
+        <v>0.13</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>0.1248717948717949</v>
+        <v>0.1266666666666666</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>0.1212820512820513</v>
+        <v>0.1233333333333333</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>0.1176923076923077</v>
+        <v>0.12</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>0.1141025641025641</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="M1" s="1" t="n">
-        <v>0.1105128205128205</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="N1" s="1" t="n">
-        <v>0.1069230769230769</v>
+        <v>0.11</v>
       </c>
       <c r="O1" s="1" t="n">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="P1" s="1" t="n">
         <v>0.1033333333333333</v>
       </c>
-      <c r="P1" s="1" t="n">
-        <v>0.09974358974358974</v>
-      </c>
       <c r="Q1" s="1" t="n">
-        <v>0.09615384615384615</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="R1" s="1" t="n">
-        <v>0.09256410256410257</v>
+        <v>0.09666666666666665</v>
       </c>
       <c r="S1" s="1" t="n">
-        <v>0.08897435897435899</v>
+        <v>0.09333333333333332</v>
       </c>
       <c r="T1" s="1" t="n">
-        <v>0.08538461538461539</v>
+        <v>0.09</v>
       </c>
       <c r="U1" s="1" t="n">
-        <v>0.0817948717948718</v>
+        <v>0.08666666666666666</v>
       </c>
       <c r="V1" s="1" t="n">
-        <v>0.0782051282051282</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="W1" s="1" t="n">
-        <v>0.07461538461538463</v>
+        <v>0.07999999999999999</v>
       </c>
       <c r="X1" s="1" t="n">
-        <v>0.07102564102564103</v>
+        <v>0.07666666666666666</v>
       </c>
       <c r="Y1" s="1" t="n">
-        <v>0.06743589743589744</v>
+        <v>0.07333333333333332</v>
       </c>
       <c r="Z1" s="1" t="n">
-        <v>0.06384615384615386</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="AA1" s="1" t="n">
-        <v>0.06025641025641026</v>
+        <v>0.06666666666666665</v>
       </c>
       <c r="AB1" s="1" t="n">
-        <v>0.05666666666666667</v>
+        <v>0.06333333333333332</v>
       </c>
       <c r="AC1" s="1" t="n">
-        <v>0.05307692307692308</v>
+        <v>0.05999999999999998</v>
       </c>
       <c r="AD1" s="1" t="n">
-        <v>0.0494871794871795</v>
+        <v>0.05666666666666666</v>
       </c>
       <c r="AE1" s="1" t="n">
-        <v>0.0458974358974359</v>
+        <v>0.05333333333333332</v>
       </c>
       <c r="AF1" s="1" t="n">
-        <v>0.04230769230769231</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="AG1" s="1" t="n">
-        <v>0.03871794871794873</v>
+        <v>0.04666666666666665</v>
       </c>
       <c r="AH1" s="1" t="n">
-        <v>0.03512820512820514</v>
+        <v>0.04333333333333332</v>
       </c>
       <c r="AI1" s="1" t="n">
-        <v>0.03153846153846154</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="AJ1" s="1" t="n">
-        <v>0.02794871794871796</v>
+        <v>0.03666666666666665</v>
       </c>
       <c r="AK1" s="1" t="n">
-        <v>0.02435897435897436</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="AL1" s="1" t="n">
-        <v>0.02076923076923079</v>
+        <v>0.02999999999999999</v>
       </c>
       <c r="AM1" s="1" t="n">
-        <v>0.0171794871794872</v>
+        <v>0.02666666666666666</v>
       </c>
       <c r="AN1" s="1" t="n">
-        <v>0.0135897435897436</v>
+        <v>0.02333333333333332</v>
       </c>
       <c r="AO1" s="1" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="2">
@@ -501,124 +501,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2091125939678202</v>
+        <v>0.207886466917461</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2066932557497712</v>
+        <v>0.2057331647382618</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2046694047445952</v>
+        <v>0.2041357847903238</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2026474462877041</v>
+        <v>0.2024140635232921</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2006652630603289</v>
+        <v>0.2007014354343817</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1986110456362742</v>
+        <v>0.1989737145174305</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1964602734693125</v>
+        <v>0.1972686518910019</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1943837843105767</v>
+        <v>0.1955195072511645</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1922907426463831</v>
+        <v>0.1937467586745259</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1901461073820007</v>
+        <v>0.1919815894171397</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1880792372606578</v>
+        <v>0.1902233818605542</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1859328437720727</v>
+        <v>0.1884224840750173</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1837520636063373</v>
+        <v>0.1866051299397455</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1815658076343864</v>
+        <v>0.1846642782415878</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1791133245048027</v>
+        <v>0.1828184513843782</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1766044558715371</v>
+        <v>0.1809575427123837</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1740118695760746</v>
+        <v>0.1790813729744471</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1713936829766024</v>
+        <v>0.1770799878248412</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1687420525126566</v>
+        <v>0.175213323707443</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1659601294447572</v>
+        <v>0.1732741084771544</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1633718757321657</v>
+        <v>0.1713304118004816</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1606005878324369</v>
+        <v>0.1692676261425356</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1577903384866304</v>
+        <v>0.1673639199059341</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1549238585892311</v>
+        <v>0.1652368090351866</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.1520724743176939</v>
+        <v>0.1630635889050685</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1491310943154919</v>
+        <v>0.1608641397302708</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.1461430295131244</v>
+        <v>0.1586374432696516</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1425406238468137</v>
+        <v>0.1558825586667089</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.1394465349045881</v>
+        <v>0.1534765108363003</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.1362985474156587</v>
+        <v>0.1511298915901539</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.1331306020589326</v>
+        <v>0.1486729248356963</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.1293981202773312</v>
+        <v>0.1461942712415532</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1260218701975041</v>
+        <v>0.1437439896806706</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.1226334263551656</v>
+        <v>0.1407816578683603</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.1193453410273856</v>
+        <v>0.1382121460886374</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.1158584172883461</v>
+        <v>0.1356639166381102</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.1122103004177978</v>
+        <v>0.13303251387741</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.1085313141211885</v>
+        <v>0.1304611715501844</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.1048152223839006</v>
+        <v>0.1277684110469129</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.1010146213336168</v>
+        <v>0.1250936551143232</v>
       </c>
     </row>
   </sheetData>
@@ -645,121 +645,121 @@
         <v>0.15</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>0.1464102564102564</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>0.1428205128205128</v>
+        <v>0.1433333333333333</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>0.1392307692307692</v>
+        <v>0.14</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>0.1356410256410256</v>
+        <v>0.1366666666666667</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>0.1320512820512821</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>0.1284615384615385</v>
+        <v>0.13</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>0.1248717948717949</v>
+        <v>0.1266666666666666</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>0.1212820512820513</v>
+        <v>0.1233333333333333</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>0.1176923076923077</v>
+        <v>0.12</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>0.1141025641025641</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="M1" s="1" t="n">
-        <v>0.1105128205128205</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="N1" s="1" t="n">
-        <v>0.1069230769230769</v>
+        <v>0.11</v>
       </c>
       <c r="O1" s="1" t="n">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="P1" s="1" t="n">
         <v>0.1033333333333333</v>
       </c>
-      <c r="P1" s="1" t="n">
-        <v>0.09974358974358974</v>
-      </c>
       <c r="Q1" s="1" t="n">
-        <v>0.09615384615384615</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="R1" s="1" t="n">
-        <v>0.09256410256410257</v>
+        <v>0.09666666666666665</v>
       </c>
       <c r="S1" s="1" t="n">
-        <v>0.08897435897435899</v>
+        <v>0.09333333333333332</v>
       </c>
       <c r="T1" s="1" t="n">
-        <v>0.08538461538461539</v>
+        <v>0.09</v>
       </c>
       <c r="U1" s="1" t="n">
-        <v>0.0817948717948718</v>
+        <v>0.08666666666666666</v>
       </c>
       <c r="V1" s="1" t="n">
-        <v>0.0782051282051282</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="W1" s="1" t="n">
-        <v>0.07461538461538463</v>
+        <v>0.07999999999999999</v>
       </c>
       <c r="X1" s="1" t="n">
-        <v>0.07102564102564103</v>
+        <v>0.07666666666666666</v>
       </c>
       <c r="Y1" s="1" t="n">
-        <v>0.06743589743589744</v>
+        <v>0.07333333333333332</v>
       </c>
       <c r="Z1" s="1" t="n">
-        <v>0.06384615384615386</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="AA1" s="1" t="n">
-        <v>0.06025641025641026</v>
+        <v>0.06666666666666665</v>
       </c>
       <c r="AB1" s="1" t="n">
-        <v>0.05666666666666667</v>
+        <v>0.06333333333333332</v>
       </c>
       <c r="AC1" s="1" t="n">
-        <v>0.05307692307692308</v>
+        <v>0.05999999999999998</v>
       </c>
       <c r="AD1" s="1" t="n">
-        <v>0.0494871794871795</v>
+        <v>0.05666666666666666</v>
       </c>
       <c r="AE1" s="1" t="n">
-        <v>0.0458974358974359</v>
+        <v>0.05333333333333332</v>
       </c>
       <c r="AF1" s="1" t="n">
-        <v>0.04230769230769231</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="AG1" s="1" t="n">
-        <v>0.03871794871794873</v>
+        <v>0.04666666666666665</v>
       </c>
       <c r="AH1" s="1" t="n">
-        <v>0.03512820512820514</v>
+        <v>0.04333333333333332</v>
       </c>
       <c r="AI1" s="1" t="n">
-        <v>0.03153846153846154</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="AJ1" s="1" t="n">
-        <v>0.02794871794871796</v>
+        <v>0.03666666666666665</v>
       </c>
       <c r="AK1" s="1" t="n">
-        <v>0.02435897435897436</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="AL1" s="1" t="n">
-        <v>0.02076923076923079</v>
+        <v>0.02999999999999999</v>
       </c>
       <c r="AM1" s="1" t="n">
-        <v>0.0171794871794872</v>
+        <v>0.02666666666666666</v>
       </c>
       <c r="AN1" s="1" t="n">
-        <v>0.0135897435897436</v>
+        <v>0.02333333333333332</v>
       </c>
       <c r="AO1" s="1" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="2">
@@ -767,124 +767,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>43083493.10279908</v>
+        <v>40177814.37060901</v>
       </c>
       <c r="C2" t="n">
-        <v>42624774.40239997</v>
+        <v>39817754.40245093</v>
       </c>
       <c r="D2" t="n">
-        <v>42085031.0789539</v>
+        <v>39345032.77433511</v>
       </c>
       <c r="E2" t="n">
-        <v>41521431.70985061</v>
+        <v>38866816.98126886</v>
       </c>
       <c r="F2" t="n">
-        <v>40932560.6012802</v>
+        <v>38369339.13321812</v>
       </c>
       <c r="G2" t="n">
-        <v>40324747.63608646</v>
+        <v>37853988.99387266</v>
       </c>
       <c r="H2" t="n">
-        <v>39698980.51951294</v>
+        <v>37318270.72287907</v>
       </c>
       <c r="I2" t="n">
-        <v>39045222.20578352</v>
+        <v>36766176.04109695</v>
       </c>
       <c r="J2" t="n">
-        <v>38368516.9894127</v>
+        <v>36195956.21357907</v>
       </c>
       <c r="K2" t="n">
-        <v>37670369.88994545</v>
+        <v>35605796.12846293</v>
       </c>
       <c r="L2" t="n">
-        <v>36943854.27248338</v>
+        <v>34995560.69633808</v>
       </c>
       <c r="M2" t="n">
-        <v>36196760.36374954</v>
+        <v>34367802.98819175</v>
       </c>
       <c r="N2" t="n">
-        <v>35426494.4935839</v>
+        <v>33720781.51924753</v>
       </c>
       <c r="O2" t="n">
-        <v>34631284.80278997</v>
+        <v>33059857.38423154</v>
       </c>
       <c r="P2" t="n">
-        <v>33862043.20288277</v>
+        <v>32373354.86337464</v>
       </c>
       <c r="Q2" t="n">
-        <v>33083938.06870405</v>
+        <v>31666829.30696375</v>
       </c>
       <c r="R2" t="n">
-        <v>32278741.15438469</v>
+        <v>30940084.1527965</v>
       </c>
       <c r="S2" t="n">
-        <v>31443395.19128241</v>
+        <v>30197998.60639561</v>
       </c>
       <c r="T2" t="n">
-        <v>30577793.91639009</v>
+        <v>29428194.27319338</v>
       </c>
       <c r="U2" t="n">
-        <v>29685289.91057292</v>
+        <v>28640078.85575627</v>
       </c>
       <c r="V2" t="n">
-        <v>28752841.80485959</v>
+        <v>27830313.37232064</v>
       </c>
       <c r="W2" t="n">
-        <v>27794637.69936267</v>
+        <v>27003366.63092646</v>
       </c>
       <c r="X2" t="n">
-        <v>26804515.69153693</v>
+        <v>26147591.88145368</v>
       </c>
       <c r="Y2" t="n">
-        <v>25782611.13905927</v>
+        <v>25294435.33527929</v>
       </c>
       <c r="Z2" t="n">
-        <v>24726155.82455923</v>
+        <v>24425156.81476109</v>
       </c>
       <c r="AA2" t="n">
-        <v>23638092.35861126</v>
+        <v>23531325.10740651</v>
       </c>
       <c r="AB2" t="n">
-        <v>22516484.28242682</v>
+        <v>22612622.49284071</v>
       </c>
       <c r="AC2" t="n">
-        <v>21376222.12731433</v>
+        <v>21684744.02109381</v>
       </c>
       <c r="AD2" t="n">
-        <v>20185465.72700774</v>
+        <v>20720904.72069836</v>
       </c>
       <c r="AE2" t="n">
-        <v>18959828.00996447</v>
+        <v>19728089.03250477</v>
       </c>
       <c r="AF2" t="n">
-        <v>17698045.96668022</v>
+        <v>18710879.70712205</v>
       </c>
       <c r="AG2" t="n">
-        <v>16411014.18351048</v>
+        <v>17666249.25267104</v>
       </c>
       <c r="AH2" t="n">
-        <v>15078237.59544125</v>
+        <v>16592675.04781981</v>
       </c>
       <c r="AI2" t="n">
-        <v>13707675.20475155</v>
+        <v>15502234.43025653</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12297381.8528059</v>
+        <v>14373346.97343642</v>
       </c>
       <c r="AK2" t="n">
-        <v>10851819.25698688</v>
+        <v>13214896.35205422</v>
       </c>
       <c r="AL2" t="n">
-        <v>9369361.538078805</v>
+        <v>12028622.25620341</v>
       </c>
       <c r="AM2" t="n">
-        <v>7847784.602309841</v>
+        <v>10811697.54627294</v>
       </c>
       <c r="AN2" t="n">
-        <v>6286954.76155526</v>
+        <v>9566770.335096361</v>
       </c>
       <c r="AO2" t="n">
-        <v>4686993.862917109</v>
+        <v>8291392.076569155</v>
       </c>
     </row>
   </sheetData>
@@ -911,121 +911,121 @@
         <v>0.15</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>0.1464102564102564</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>0.1428205128205128</v>
+        <v>0.1433333333333333</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>0.1392307692307692</v>
+        <v>0.14</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>0.1356410256410256</v>
+        <v>0.1366666666666667</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>0.1320512820512821</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>0.1284615384615385</v>
+        <v>0.13</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>0.1248717948717949</v>
+        <v>0.1266666666666666</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>0.1212820512820513</v>
+        <v>0.1233333333333333</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>0.1176923076923077</v>
+        <v>0.12</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>0.1141025641025641</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="M1" s="1" t="n">
-        <v>0.1105128205128205</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="N1" s="1" t="n">
-        <v>0.1069230769230769</v>
+        <v>0.11</v>
       </c>
       <c r="O1" s="1" t="n">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="P1" s="1" t="n">
         <v>0.1033333333333333</v>
       </c>
-      <c r="P1" s="1" t="n">
-        <v>0.09974358974358974</v>
-      </c>
       <c r="Q1" s="1" t="n">
-        <v>0.09615384615384615</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="R1" s="1" t="n">
-        <v>0.09256410256410257</v>
+        <v>0.09666666666666665</v>
       </c>
       <c r="S1" s="1" t="n">
-        <v>0.08897435897435899</v>
+        <v>0.09333333333333332</v>
       </c>
       <c r="T1" s="1" t="n">
-        <v>0.08538461538461539</v>
+        <v>0.09</v>
       </c>
       <c r="U1" s="1" t="n">
-        <v>0.0817948717948718</v>
+        <v>0.08666666666666666</v>
       </c>
       <c r="V1" s="1" t="n">
-        <v>0.0782051282051282</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="W1" s="1" t="n">
-        <v>0.07461538461538463</v>
+        <v>0.07999999999999999</v>
       </c>
       <c r="X1" s="1" t="n">
-        <v>0.07102564102564103</v>
+        <v>0.07666666666666666</v>
       </c>
       <c r="Y1" s="1" t="n">
-        <v>0.06743589743589744</v>
+        <v>0.07333333333333332</v>
       </c>
       <c r="Z1" s="1" t="n">
-        <v>0.06384615384615386</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="AA1" s="1" t="n">
-        <v>0.06025641025641026</v>
+        <v>0.06666666666666665</v>
       </c>
       <c r="AB1" s="1" t="n">
-        <v>0.05666666666666667</v>
+        <v>0.06333333333333332</v>
       </c>
       <c r="AC1" s="1" t="n">
-        <v>0.05307692307692308</v>
+        <v>0.05999999999999998</v>
       </c>
       <c r="AD1" s="1" t="n">
-        <v>0.0494871794871795</v>
+        <v>0.05666666666666666</v>
       </c>
       <c r="AE1" s="1" t="n">
-        <v>0.0458974358974359</v>
+        <v>0.05333333333333332</v>
       </c>
       <c r="AF1" s="1" t="n">
-        <v>0.04230769230769231</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="AG1" s="1" t="n">
-        <v>0.03871794871794873</v>
+        <v>0.04666666666666665</v>
       </c>
       <c r="AH1" s="1" t="n">
-        <v>0.03512820512820514</v>
+        <v>0.04333333333333332</v>
       </c>
       <c r="AI1" s="1" t="n">
-        <v>0.03153846153846154</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="AJ1" s="1" t="n">
-        <v>0.02794871794871796</v>
+        <v>0.03666666666666665</v>
       </c>
       <c r="AK1" s="1" t="n">
-        <v>0.02435897435897436</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="AL1" s="1" t="n">
-        <v>0.02076923076923079</v>
+        <v>0.02999999999999999</v>
       </c>
       <c r="AM1" s="1" t="n">
-        <v>0.0171794871794872</v>
+        <v>0.02666666666666666</v>
       </c>
       <c r="AN1" s="1" t="n">
-        <v>0.0135897435897436</v>
+        <v>0.02333333333333332</v>
       </c>
       <c r="AO1" s="1" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="2">
@@ -1033,124 +1033,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11242901.63019848</v>
+        <v>10484497.24898959</v>
       </c>
       <c r="C2" t="n">
-        <v>12085748.48157212</v>
+        <v>11231417.104272</v>
       </c>
       <c r="D2" t="n">
-        <v>13036421.60706239</v>
+        <v>12070811.50344865</v>
       </c>
       <c r="E2" t="n">
-        <v>14010310.72740575</v>
+        <v>12914503.48978316</v>
       </c>
       <c r="F2" t="n">
-        <v>15003920.79514541</v>
+        <v>13774729.79793632</v>
       </c>
       <c r="G2" t="n">
-        <v>16019698.5689812</v>
+        <v>14652156.98447316</v>
       </c>
       <c r="H2" t="n">
-        <v>17058704.48758332</v>
+        <v>15546013.60014639</v>
       </c>
       <c r="I2" t="n">
-        <v>18117094.4697115</v>
+        <v>16458150.22932545</v>
       </c>
       <c r="J2" t="n">
-        <v>19197207.47143846</v>
+        <v>17388189.2681868</v>
       </c>
       <c r="K2" t="n">
-        <v>20300230.05202375</v>
+        <v>18335528.29571138</v>
       </c>
       <c r="L2" t="n">
-        <v>21422753.05716349</v>
+        <v>19300263.81065151</v>
       </c>
       <c r="M2" t="n">
-        <v>22569412.82363607</v>
+        <v>20284077.79634881</v>
       </c>
       <c r="N2" t="n">
-        <v>23739308.7297059</v>
+        <v>21286381.40769967</v>
       </c>
       <c r="O2" t="n">
-        <v>24931730.89599964</v>
+        <v>22311138.84260475</v>
       </c>
       <c r="P2" t="n">
-        <v>26186413.65624978</v>
+        <v>23351065.67387322</v>
       </c>
       <c r="Q2" t="n">
-        <v>27483604.62060729</v>
+        <v>24409997.94833954</v>
       </c>
       <c r="R2" t="n">
-        <v>28811178.28923435</v>
+        <v>25488148.02567151</v>
       </c>
       <c r="S2" t="n">
-        <v>30167359.13544921</v>
+        <v>26590206.14231735</v>
       </c>
       <c r="T2" t="n">
-        <v>31552724.52956158</v>
+        <v>27705862.41612857</v>
       </c>
       <c r="U2" t="n">
-        <v>32971779.95339684</v>
+        <v>28843704.58011273</v>
       </c>
       <c r="V2" t="n">
-        <v>34410707.882888</v>
+        <v>30001104.66930459</v>
       </c>
       <c r="W2" t="n">
-        <v>35886269.37010881</v>
+        <v>31183586.97185302</v>
       </c>
       <c r="X2" t="n">
-        <v>37392416.9138184</v>
+        <v>32378275.18172256</v>
       </c>
       <c r="Y2" t="n">
-        <v>38930320.11046083</v>
+        <v>33625616.99194229</v>
       </c>
       <c r="Z2" t="n">
-        <v>40496678.28792299</v>
+        <v>34906626.50300276</v>
       </c>
       <c r="AA2" t="n">
-        <v>42097069.41095516</v>
+        <v>36211515.26168945</v>
       </c>
       <c r="AB2" t="n">
-        <v>43729577.61011925</v>
+        <v>37540544.23384999</v>
       </c>
       <c r="AC2" t="n">
-        <v>45427126.51908755</v>
+        <v>38922719.54948965</v>
       </c>
       <c r="AD2" t="n">
-        <v>47126389.6610423</v>
+        <v>40314052.08331432</v>
       </c>
       <c r="AE2" t="n">
-        <v>48858906.75569647</v>
+        <v>41725849.7815618</v>
       </c>
       <c r="AF2" t="n">
-        <v>50622694.11233811</v>
+        <v>43168320.73069637</v>
       </c>
       <c r="AG2" t="n">
-        <v>52453531.53803577</v>
+        <v>44636363.44341503</v>
       </c>
       <c r="AH2" t="n">
-        <v>54292189.10199615</v>
+        <v>46126775.51785222</v>
       </c>
       <c r="AI2" t="n">
-        <v>56161941.67233646</v>
+        <v>47676723.36943828</v>
       </c>
       <c r="AJ2" t="n">
-        <v>58054374.47725069</v>
+        <v>49224984.2031326</v>
       </c>
       <c r="AK2" t="n">
-        <v>59990658.87686427</v>
+        <v>50796328.46342195</v>
       </c>
       <c r="AL2" t="n">
-        <v>61968667.1589648</v>
+        <v>52398440.25593029</v>
       </c>
       <c r="AM2" t="n">
-        <v>63978577.07773441</v>
+        <v>54020692.74398539</v>
       </c>
       <c r="AN2" t="n">
-        <v>66020369.54599024</v>
+        <v>55677011.04432119</v>
       </c>
       <c r="AO2" t="n">
-        <v>68097726.59508504</v>
+        <v>57356698.39369301</v>
       </c>
     </row>
   </sheetData>
@@ -1177,121 +1177,121 @@
         <v>0.15</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>0.1464102564102564</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>0.1428205128205128</v>
+        <v>0.1433333333333333</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>0.1392307692307692</v>
+        <v>0.14</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>0.1356410256410256</v>
+        <v>0.1366666666666667</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>0.1320512820512821</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>0.1284615384615385</v>
+        <v>0.13</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>0.1248717948717949</v>
+        <v>0.1266666666666666</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>0.1212820512820513</v>
+        <v>0.1233333333333333</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>0.1176923076923077</v>
+        <v>0.12</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>0.1141025641025641</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="M1" s="1" t="n">
-        <v>0.1105128205128205</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="N1" s="1" t="n">
-        <v>0.1069230769230769</v>
+        <v>0.11</v>
       </c>
       <c r="O1" s="1" t="n">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="P1" s="1" t="n">
         <v>0.1033333333333333</v>
       </c>
-      <c r="P1" s="1" t="n">
-        <v>0.09974358974358974</v>
-      </c>
       <c r="Q1" s="1" t="n">
-        <v>0.09615384615384615</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="R1" s="1" t="n">
-        <v>0.09256410256410257</v>
+        <v>0.09666666666666665</v>
       </c>
       <c r="S1" s="1" t="n">
-        <v>0.08897435897435899</v>
+        <v>0.09333333333333332</v>
       </c>
       <c r="T1" s="1" t="n">
-        <v>0.08538461538461539</v>
+        <v>0.09</v>
       </c>
       <c r="U1" s="1" t="n">
-        <v>0.0817948717948718</v>
+        <v>0.08666666666666666</v>
       </c>
       <c r="V1" s="1" t="n">
-        <v>0.0782051282051282</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="W1" s="1" t="n">
-        <v>0.07461538461538463</v>
+        <v>0.07999999999999999</v>
       </c>
       <c r="X1" s="1" t="n">
-        <v>0.07102564102564103</v>
+        <v>0.07666666666666666</v>
       </c>
       <c r="Y1" s="1" t="n">
-        <v>0.06743589743589744</v>
+        <v>0.07333333333333332</v>
       </c>
       <c r="Z1" s="1" t="n">
-        <v>0.06384615384615386</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="AA1" s="1" t="n">
-        <v>0.06025641025641026</v>
+        <v>0.06666666666666665</v>
       </c>
       <c r="AB1" s="1" t="n">
-        <v>0.05666666666666667</v>
+        <v>0.06333333333333332</v>
       </c>
       <c r="AC1" s="1" t="n">
-        <v>0.05307692307692308</v>
+        <v>0.05999999999999998</v>
       </c>
       <c r="AD1" s="1" t="n">
-        <v>0.0494871794871795</v>
+        <v>0.05666666666666666</v>
       </c>
       <c r="AE1" s="1" t="n">
-        <v>0.0458974358974359</v>
+        <v>0.05333333333333332</v>
       </c>
       <c r="AF1" s="1" t="n">
-        <v>0.04230769230769231</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="AG1" s="1" t="n">
-        <v>0.03871794871794873</v>
+        <v>0.04666666666666665</v>
       </c>
       <c r="AH1" s="1" t="n">
-        <v>0.03512820512820514</v>
+        <v>0.04333333333333332</v>
       </c>
       <c r="AI1" s="1" t="n">
-        <v>0.03153846153846154</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="AJ1" s="1" t="n">
-        <v>0.02794871794871796</v>
+        <v>0.03666666666666665</v>
       </c>
       <c r="AK1" s="1" t="n">
-        <v>0.02435897435897436</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="AL1" s="1" t="n">
-        <v>0.02076923076923079</v>
+        <v>0.02999999999999999</v>
       </c>
       <c r="AM1" s="1" t="n">
-        <v>0.0171794871794872</v>
+        <v>0.02666666666666666</v>
       </c>
       <c r="AN1" s="1" t="n">
-        <v>0.0135897435897436</v>
+        <v>0.02333333333333332</v>
       </c>
       <c r="AO1" s="1" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="2">
@@ -1299,124 +1299,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>221007391.3777041</v>
+        <v>236917447.0792212</v>
       </c>
       <c r="C2" t="n">
-        <v>220116449.2580547</v>
+        <v>235991509.2882424</v>
       </c>
       <c r="D2" t="n">
-        <v>219161712.2679273</v>
+        <v>235076000.8688306</v>
       </c>
       <c r="E2" t="n">
-        <v>218196004.6670681</v>
+        <v>234194572.6545526</v>
       </c>
       <c r="F2" t="n">
-        <v>217160971.7316223</v>
+        <v>233282754.7324276</v>
       </c>
       <c r="G2" t="n">
-        <v>216179856.9501314</v>
+        <v>232368813.0569307</v>
       </c>
       <c r="H2" t="n">
-        <v>215279384.7058828</v>
+        <v>231407035.2854407</v>
       </c>
       <c r="I2" t="n">
-        <v>214268698.6560818</v>
+        <v>230476274.1379918</v>
       </c>
       <c r="J2" t="n">
-        <v>213247604.750838</v>
+        <v>229553042.3516926</v>
       </c>
       <c r="K2" t="n">
-        <v>212255096.0591353</v>
+        <v>228598037.3481972</v>
       </c>
       <c r="L2" t="n">
-        <v>211143885.8644757</v>
+        <v>227611536.0026848</v>
       </c>
       <c r="M2" t="n">
-        <v>210091172.4597183</v>
+        <v>226653011.7919405</v>
       </c>
       <c r="N2" t="n">
-        <v>209044428.8478411</v>
+        <v>225690414.7161974</v>
       </c>
       <c r="O2" t="n">
-        <v>207970260.9570352</v>
+        <v>224853015.5336519</v>
       </c>
       <c r="P2" t="n">
-        <v>206837708.1031746</v>
+        <v>223874562.4233934</v>
       </c>
       <c r="Q2" t="n">
-        <v>205570310.0951459</v>
+        <v>222888521.499961</v>
       </c>
       <c r="R2" t="n">
-        <v>204348256.5277688</v>
+        <v>221894229.8730682</v>
       </c>
       <c r="S2" t="n">
-        <v>203103237.7180417</v>
+        <v>221025948.3983296</v>
       </c>
       <c r="T2" t="n">
-        <v>201842462.1527129</v>
+        <v>219963611.6918753</v>
       </c>
       <c r="U2" t="n">
-        <v>200676034.9430104</v>
+        <v>218961178.4597898</v>
       </c>
       <c r="V2" t="n">
-        <v>199226072.857657</v>
+        <v>217933931.6193933</v>
       </c>
       <c r="W2" t="n">
-        <v>197926794.5585812</v>
+        <v>217023137.7671273</v>
       </c>
       <c r="X2" t="n">
-        <v>196609619.2665784</v>
+        <v>215883054.8478869</v>
       </c>
       <c r="Y2" t="n">
-        <v>195291877.1354296</v>
+        <v>214787217.6003066</v>
       </c>
       <c r="Z2" t="n">
-        <v>193886405.3310297</v>
+        <v>213622502.1849172</v>
       </c>
       <c r="AA2" t="n">
-        <v>192513810.9709556</v>
+        <v>212447245.6069061</v>
       </c>
       <c r="AB2" t="n">
-        <v>191120052.0245795</v>
+        <v>211261591.297793</v>
       </c>
       <c r="AC2" t="n">
-        <v>190378982.1224909</v>
+        <v>210694834.2167157</v>
       </c>
       <c r="AD2" t="n">
-        <v>188949567.7255667</v>
+        <v>209599500.9648396</v>
       </c>
       <c r="AE2" t="n">
-        <v>187496193.5232089</v>
+        <v>208376324.5417003</v>
       </c>
       <c r="AF2" t="n">
-        <v>185973400.5641566</v>
+        <v>207240811.396612</v>
       </c>
       <c r="AG2" t="n">
-        <v>185037969.0654366</v>
+        <v>206078774.1509359</v>
       </c>
       <c r="AH2" t="n">
-        <v>183567433.2741229</v>
+        <v>204823970.3705214</v>
       </c>
       <c r="AI2" t="n">
-        <v>182001407.3907987</v>
+        <v>204169371.9082243</v>
       </c>
       <c r="AJ2" t="n">
-        <v>180194010.3571981</v>
+        <v>202949186.2099059</v>
       </c>
       <c r="AK2" t="n">
-        <v>178506196.3473289</v>
+        <v>201637207.7229128</v>
       </c>
       <c r="AL2" t="n">
-        <v>176884992.9593617</v>
+        <v>200366256.1017361</v>
       </c>
       <c r="AM2" t="n">
-        <v>175160616.7391633</v>
+        <v>198946829.2907882</v>
       </c>
       <c r="AN2" t="n">
-        <v>173330494.9559898</v>
+        <v>197612672.6667681</v>
       </c>
       <c r="AO2" t="n">
-        <v>171438137.2231182</v>
+        <v>196178015.9219237</v>
       </c>
     </row>
   </sheetData>
@@ -1443,121 +1443,121 @@
         <v>0.15</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>0.1464102564102564</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>0.1428205128205128</v>
+        <v>0.1433333333333333</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>0.1392307692307692</v>
+        <v>0.14</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>0.1356410256410256</v>
+        <v>0.1366666666666667</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>0.1320512820512821</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>0.1284615384615385</v>
+        <v>0.13</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>0.1248717948717949</v>
+        <v>0.1266666666666666</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>0.1212820512820513</v>
+        <v>0.1233333333333333</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>0.1176923076923077</v>
+        <v>0.12</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>0.1141025641025641</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="M1" s="1" t="n">
-        <v>0.1105128205128205</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="N1" s="1" t="n">
-        <v>0.1069230769230769</v>
+        <v>0.11</v>
       </c>
       <c r="O1" s="1" t="n">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="P1" s="1" t="n">
         <v>0.1033333333333333</v>
       </c>
-      <c r="P1" s="1" t="n">
-        <v>0.09974358974358974</v>
-      </c>
       <c r="Q1" s="1" t="n">
-        <v>0.09615384615384615</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="R1" s="1" t="n">
-        <v>0.09256410256410257</v>
+        <v>0.09666666666666665</v>
       </c>
       <c r="S1" s="1" t="n">
-        <v>0.08897435897435899</v>
+        <v>0.09333333333333332</v>
       </c>
       <c r="T1" s="1" t="n">
-        <v>0.08538461538461539</v>
+        <v>0.09</v>
       </c>
       <c r="U1" s="1" t="n">
-        <v>0.0817948717948718</v>
+        <v>0.08666666666666666</v>
       </c>
       <c r="V1" s="1" t="n">
-        <v>0.0782051282051282</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="W1" s="1" t="n">
-        <v>0.07461538461538463</v>
+        <v>0.07999999999999999</v>
       </c>
       <c r="X1" s="1" t="n">
-        <v>0.07102564102564103</v>
+        <v>0.07666666666666666</v>
       </c>
       <c r="Y1" s="1" t="n">
-        <v>0.06743589743589744</v>
+        <v>0.07333333333333332</v>
       </c>
       <c r="Z1" s="1" t="n">
-        <v>0.06384615384615386</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="AA1" s="1" t="n">
-        <v>0.06025641025641026</v>
+        <v>0.06666666666666665</v>
       </c>
       <c r="AB1" s="1" t="n">
-        <v>0.05666666666666667</v>
+        <v>0.06333333333333332</v>
       </c>
       <c r="AC1" s="1" t="n">
-        <v>0.05307692307692308</v>
+        <v>0.05999999999999998</v>
       </c>
       <c r="AD1" s="1" t="n">
-        <v>0.0494871794871795</v>
+        <v>0.05666666666666666</v>
       </c>
       <c r="AE1" s="1" t="n">
-        <v>0.0458974358974359</v>
+        <v>0.05333333333333332</v>
       </c>
       <c r="AF1" s="1" t="n">
-        <v>0.04230769230769231</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="AG1" s="1" t="n">
-        <v>0.03871794871794873</v>
+        <v>0.04666666666666665</v>
       </c>
       <c r="AH1" s="1" t="n">
-        <v>0.03512820512820514</v>
+        <v>0.04333333333333332</v>
       </c>
       <c r="AI1" s="1" t="n">
-        <v>0.03153846153846154</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="AJ1" s="1" t="n">
-        <v>0.02794871794871796</v>
+        <v>0.03666666666666665</v>
       </c>
       <c r="AK1" s="1" t="n">
-        <v>0.02435897435897436</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="AL1" s="1" t="n">
-        <v>0.02076923076923079</v>
+        <v>0.02999999999999999</v>
       </c>
       <c r="AM1" s="1" t="n">
-        <v>0.0171794871794872</v>
+        <v>0.02666666666666666</v>
       </c>
       <c r="AN1" s="1" t="n">
-        <v>0.0135897435897436</v>
+        <v>0.02333333333333332</v>
       </c>
       <c r="AO1" s="1" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="2">
@@ -1565,124 +1565,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>62698014.24533018</v>
+        <v>62698909.48564092</v>
       </c>
       <c r="C2" t="n">
-        <v>61215988.6621982</v>
+        <v>61305600.61560397</v>
       </c>
       <c r="D2" t="n">
-        <v>59715707.30722977</v>
+        <v>59912291.95577447</v>
       </c>
       <c r="E2" t="n">
-        <v>58215223.45666467</v>
+        <v>58518983.29604297</v>
       </c>
       <c r="F2" t="n">
-        <v>56714737.24472152</v>
+        <v>57125674.63641643</v>
       </c>
       <c r="G2" t="n">
-        <v>55214251.00580723</v>
+        <v>55732365.9769027</v>
       </c>
       <c r="H2" t="n">
-        <v>53713764.76719859</v>
+        <v>54339057.31751054</v>
       </c>
       <c r="I2" t="n">
-        <v>52213278.52926748</v>
+        <v>52945748.65824953</v>
       </c>
       <c r="J2" t="n">
-        <v>50712792.29207847</v>
+        <v>51552439.99913045</v>
       </c>
       <c r="K2" t="n">
-        <v>49212306.0556998</v>
+        <v>50159131.3401651</v>
       </c>
       <c r="L2" t="n">
-        <v>47711819.82020843</v>
+        <v>48765822.68136684</v>
       </c>
       <c r="M2" t="n">
-        <v>46211333.58569127</v>
+        <v>47372514.02275038</v>
       </c>
       <c r="N2" t="n">
-        <v>44710847.35224701</v>
+        <v>45979205.36433244</v>
       </c>
       <c r="O2" t="n">
-        <v>43210361.11998813</v>
+        <v>44585896.70613167</v>
       </c>
       <c r="P2" t="n">
-        <v>41709874.88904344</v>
+        <v>43192588.0481693</v>
       </c>
       <c r="Q2" t="n">
-        <v>40209388.65956107</v>
+        <v>41799279.39046931</v>
       </c>
       <c r="R2" t="n">
-        <v>38708902.43171227</v>
+        <v>40405970.73305897</v>
       </c>
       <c r="S2" t="n">
-        <v>37208416.20569619</v>
+        <v>39012662.07596958</v>
       </c>
       <c r="T2" t="n">
-        <v>35707929.98174558</v>
+        <v>37619353.41923709</v>
       </c>
       <c r="U2" t="n">
-        <v>34207443.76013453</v>
+        <v>36226044.76290292</v>
       </c>
       <c r="V2" t="n">
-        <v>32706957.5411877</v>
+        <v>34832736.10701532</v>
       </c>
       <c r="W2" t="n">
-        <v>31206471.32529285</v>
+        <v>33439427.45163053</v>
       </c>
       <c r="X2" t="n">
-        <v>29705985.11291678</v>
+        <v>32046118.79681472</v>
       </c>
       <c r="Y2" t="n">
-        <v>28205498.90462658</v>
+        <v>30652810.14264619</v>
       </c>
       <c r="Z2" t="n">
-        <v>26705012.70111819</v>
+        <v>29259501.48921828</v>
       </c>
       <c r="AA2" t="n">
-        <v>25204526.503255</v>
+        <v>27866192.83664315</v>
       </c>
       <c r="AB2" t="n">
-        <v>23704040.31212169</v>
+        <v>26472884.18505692</v>
       </c>
       <c r="AC2" t="n">
-        <v>22203554.1290997</v>
+        <v>25079575.53462619</v>
       </c>
       <c r="AD2" t="n">
-        <v>20703067.95597648</v>
+        <v>23686266.88555728</v>
       </c>
       <c r="AE2" t="n">
-        <v>19202581.79510623</v>
+        <v>22292958.23810874</v>
       </c>
       <c r="AF2" t="n">
-        <v>17702095.6496539</v>
+        <v>20899649.59260895</v>
       </c>
       <c r="AG2" t="n">
-        <v>16201609.52397725</v>
+        <v>19506340.94948144</v>
       </c>
       <c r="AH2" t="n">
-        <v>14701123.42424703</v>
+        <v>18113032.30928214</v>
       </c>
       <c r="AI2" t="n">
-        <v>13200637.35949941</v>
+        <v>16719723.67275532</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11700151.34351754</v>
+        <v>15326415.04092084</v>
       </c>
       <c r="AK2" t="n">
-        <v>10199665.39842007</v>
+        <v>13933106.41521475</v>
       </c>
       <c r="AL2" t="n">
-        <v>8699179.562084703</v>
+        <v>12539797.79772563</v>
       </c>
       <c r="AM2" t="n">
-        <v>7198693.905224881</v>
+        <v>11146489.19161275</v>
       </c>
       <c r="AN2" t="n">
-        <v>5698208.576815789</v>
+        <v>9753180.601893038</v>
       </c>
       <c r="AO2" t="n">
-        <v>4197713.270622545</v>
+        <v>8359872.037041751</v>
       </c>
     </row>
   </sheetData>
@@ -1709,121 +1709,121 @@
         <v>0.15</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>0.1464102564102564</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>0.1428205128205128</v>
+        <v>0.1433333333333333</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>0.1392307692307692</v>
+        <v>0.14</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>0.1356410256410256</v>
+        <v>0.1366666666666667</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>0.1320512820512821</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>0.1284615384615385</v>
+        <v>0.13</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>0.1248717948717949</v>
+        <v>0.1266666666666666</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>0.1212820512820513</v>
+        <v>0.1233333333333333</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>0.1176923076923077</v>
+        <v>0.12</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>0.1141025641025641</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="M1" s="1" t="n">
-        <v>0.1105128205128205</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="N1" s="1" t="n">
-        <v>0.1069230769230769</v>
+        <v>0.11</v>
       </c>
       <c r="O1" s="1" t="n">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="P1" s="1" t="n">
         <v>0.1033333333333333</v>
       </c>
-      <c r="P1" s="1" t="n">
-        <v>0.09974358974358974</v>
-      </c>
       <c r="Q1" s="1" t="n">
-        <v>0.09615384615384615</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="R1" s="1" t="n">
-        <v>0.09256410256410257</v>
+        <v>0.09666666666666665</v>
       </c>
       <c r="S1" s="1" t="n">
-        <v>0.08897435897435899</v>
+        <v>0.09333333333333332</v>
       </c>
       <c r="T1" s="1" t="n">
-        <v>0.08538461538461539</v>
+        <v>0.09</v>
       </c>
       <c r="U1" s="1" t="n">
-        <v>0.0817948717948718</v>
+        <v>0.08666666666666666</v>
       </c>
       <c r="V1" s="1" t="n">
-        <v>0.0782051282051282</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="W1" s="1" t="n">
-        <v>0.07461538461538463</v>
+        <v>0.07999999999999999</v>
       </c>
       <c r="X1" s="1" t="n">
-        <v>0.07102564102564103</v>
+        <v>0.07666666666666666</v>
       </c>
       <c r="Y1" s="1" t="n">
-        <v>0.06743589743589744</v>
+        <v>0.07333333333333332</v>
       </c>
       <c r="Z1" s="1" t="n">
-        <v>0.06384615384615386</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="AA1" s="1" t="n">
-        <v>0.06025641025641026</v>
+        <v>0.06666666666666665</v>
       </c>
       <c r="AB1" s="1" t="n">
-        <v>0.05666666666666667</v>
+        <v>0.06333333333333332</v>
       </c>
       <c r="AC1" s="1" t="n">
-        <v>0.05307692307692308</v>
+        <v>0.05999999999999998</v>
       </c>
       <c r="AD1" s="1" t="n">
-        <v>0.0494871794871795</v>
+        <v>0.05666666666666666</v>
       </c>
       <c r="AE1" s="1" t="n">
-        <v>0.0458974358974359</v>
+        <v>0.05333333333333332</v>
       </c>
       <c r="AF1" s="1" t="n">
-        <v>0.04230769230769231</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="AG1" s="1" t="n">
-        <v>0.03871794871794873</v>
+        <v>0.04666666666666665</v>
       </c>
       <c r="AH1" s="1" t="n">
-        <v>0.03512820512820514</v>
+        <v>0.04333333333333332</v>
       </c>
       <c r="AI1" s="1" t="n">
-        <v>0.03153846153846154</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="AJ1" s="1" t="n">
-        <v>0.02794871794871796</v>
+        <v>0.03666666666666665</v>
       </c>
       <c r="AK1" s="1" t="n">
-        <v>0.02435897435897436</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="AL1" s="1" t="n">
-        <v>0.02076923076923079</v>
+        <v>0.02999999999999999</v>
       </c>
       <c r="AM1" s="1" t="n">
-        <v>0.0171794871794872</v>
+        <v>0.02666666666666666</v>
       </c>
       <c r="AN1" s="1" t="n">
-        <v>0.0135897435897436</v>
+        <v>0.02333333333333332</v>
       </c>
       <c r="AO1" s="1" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="2">
@@ -1834,121 +1834,121 @@
         <v>28616951.84021423</v>
       </c>
       <c r="C2" t="n">
-        <v>30358367.18735384</v>
+        <v>30245448.39054901</v>
       </c>
       <c r="D2" t="n">
-        <v>32353510.39785637</v>
+        <v>32148785.70431827</v>
       </c>
       <c r="E2" t="n">
-        <v>34356910.16272887</v>
+        <v>34009292.23669253</v>
       </c>
       <c r="F2" t="n">
-        <v>36360835.75627784</v>
+        <v>35870067.56491186</v>
       </c>
       <c r="G2" t="n">
-        <v>38365066.05829118</v>
+        <v>37731100.73156145</v>
       </c>
       <c r="H2" t="n">
-        <v>40369592.71222391</v>
+        <v>39592389.70018686</v>
       </c>
       <c r="I2" t="n">
-        <v>42374413.2114974</v>
+        <v>41453932.58094089</v>
       </c>
       <c r="J2" t="n">
-        <v>44379525.2712931</v>
+        <v>43315727.53556067</v>
       </c>
       <c r="K2" t="n">
-        <v>46384926.67594286</v>
+        <v>45177772.77470157</v>
       </c>
       <c r="L2" t="n">
-        <v>48390615.27265561</v>
+        <v>47040066.55631825</v>
       </c>
       <c r="M2" t="n">
-        <v>50396588.96920459</v>
+        <v>48902607.18411396</v>
       </c>
       <c r="N2" t="n">
-        <v>52402845.73180142</v>
+        <v>50765393.0060453</v>
       </c>
       <c r="O2" t="n">
-        <v>54409383.58305296</v>
+        <v>52628422.41287893</v>
       </c>
       <c r="P2" t="n">
-        <v>56416200.59999557</v>
+        <v>54491693.83680038</v>
       </c>
       <c r="Q2" t="n">
-        <v>58423294.91220319</v>
+        <v>56355205.75007032</v>
       </c>
       <c r="R2" t="n">
-        <v>60430664.69996617</v>
+        <v>58218956.66372854</v>
       </c>
       <c r="S2" t="n">
-        <v>62438308.19253775</v>
+        <v>60082945.12634268</v>
       </c>
       <c r="T2" t="n">
-        <v>64446223.66644599</v>
+        <v>61947169.72280046</v>
       </c>
       <c r="U2" t="n">
-        <v>66454409.44386743</v>
+        <v>63811629.07314328</v>
       </c>
       <c r="V2" t="n">
-        <v>68462863.89106093</v>
+        <v>65676321.83143977</v>
       </c>
       <c r="W2" t="n">
-        <v>70471585.41685876</v>
+        <v>67541246.6846987</v>
       </c>
       <c r="X2" t="n">
-        <v>72480572.47121242</v>
+        <v>69406402.35181755</v>
       </c>
       <c r="Y2" t="n">
-        <v>74489823.54379164</v>
+        <v>71271787.58256803</v>
       </c>
       <c r="Z2" t="n">
-        <v>76499337.16263357</v>
+        <v>73137401.156615</v>
       </c>
       <c r="AA2" t="n">
-        <v>78509111.89284079</v>
+        <v>75003241.88256896</v>
       </c>
       <c r="AB2" t="n">
-        <v>80519146.33532597</v>
+        <v>76869308.59706987</v>
       </c>
       <c r="AC2" t="n">
-        <v>82529439.12560128</v>
+        <v>78735600.16390179</v>
       </c>
       <c r="AD2" t="n">
-        <v>84539988.93261075</v>
+        <v>80602115.4731373</v>
       </c>
       <c r="AE2" t="n">
-        <v>86550794.45760413</v>
+        <v>82468853.44030936</v>
       </c>
       <c r="AF2" t="n">
-        <v>88561854.4330503</v>
+        <v>84335813.00561157</v>
       </c>
       <c r="AG2" t="n">
-        <v>90573167.62158881</v>
+        <v>86202993.13312383</v>
       </c>
       <c r="AH2" t="n">
-        <v>92584732.8150184</v>
+        <v>88070392.81006421</v>
       </c>
       <c r="AI2" t="n">
-        <v>94596548.83331999</v>
+        <v>89938011.04606454</v>
       </c>
       <c r="AJ2" t="n">
-        <v>96608614.52371463</v>
+        <v>91805846.87246981</v>
       </c>
       <c r="AK2" t="n">
-        <v>98620928.75975306</v>
+        <v>93673899.34166056</v>
       </c>
       <c r="AL2" t="n">
-        <v>100633490.4404374</v>
+        <v>95542167.52639666</v>
       </c>
       <c r="AM2" t="n">
-        <v>102646298.4893721</v>
+        <v>97410650.51918259</v>
       </c>
       <c r="AN2" t="n">
-        <v>104659351.8539449</v>
+        <v>99279347.43165283</v>
       </c>
       <c r="AO2" t="n">
-        <v>106672649.5045346</v>
+        <v>101148257.3939769</v>
       </c>
     </row>
   </sheetData>
@@ -1975,121 +1975,121 @@
         <v>0.15</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>0.1464102564102564</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>0.1428205128205128</v>
+        <v>0.1433333333333333</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>0.1392307692307692</v>
+        <v>0.14</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>0.1356410256410256</v>
+        <v>0.1366666666666667</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>0.1320512820512821</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>0.1284615384615385</v>
+        <v>0.13</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>0.1248717948717949</v>
+        <v>0.1266666666666666</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>0.1212820512820513</v>
+        <v>0.1233333333333333</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>0.1176923076923077</v>
+        <v>0.12</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>0.1141025641025641</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="M1" s="1" t="n">
-        <v>0.1105128205128205</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="N1" s="1" t="n">
-        <v>0.1069230769230769</v>
+        <v>0.11</v>
       </c>
       <c r="O1" s="1" t="n">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="P1" s="1" t="n">
         <v>0.1033333333333333</v>
       </c>
-      <c r="P1" s="1" t="n">
-        <v>0.09974358974358974</v>
-      </c>
       <c r="Q1" s="1" t="n">
-        <v>0.09615384615384615</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="R1" s="1" t="n">
-        <v>0.09256410256410257</v>
+        <v>0.09666666666666665</v>
       </c>
       <c r="S1" s="1" t="n">
-        <v>0.08897435897435899</v>
+        <v>0.09333333333333332</v>
       </c>
       <c r="T1" s="1" t="n">
-        <v>0.08538461538461539</v>
+        <v>0.09</v>
       </c>
       <c r="U1" s="1" t="n">
-        <v>0.0817948717948718</v>
+        <v>0.08666666666666666</v>
       </c>
       <c r="V1" s="1" t="n">
-        <v>0.0782051282051282</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="W1" s="1" t="n">
-        <v>0.07461538461538463</v>
+        <v>0.07999999999999999</v>
       </c>
       <c r="X1" s="1" t="n">
-        <v>0.07102564102564103</v>
+        <v>0.07666666666666666</v>
       </c>
       <c r="Y1" s="1" t="n">
-        <v>0.06743589743589744</v>
+        <v>0.07333333333333332</v>
       </c>
       <c r="Z1" s="1" t="n">
-        <v>0.06384615384615386</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="AA1" s="1" t="n">
-        <v>0.06025641025641026</v>
+        <v>0.06666666666666665</v>
       </c>
       <c r="AB1" s="1" t="n">
-        <v>0.05666666666666667</v>
+        <v>0.06333333333333332</v>
       </c>
       <c r="AC1" s="1" t="n">
-        <v>0.05307692307692308</v>
+        <v>0.05999999999999998</v>
       </c>
       <c r="AD1" s="1" t="n">
-        <v>0.0494871794871795</v>
+        <v>0.05666666666666666</v>
       </c>
       <c r="AE1" s="1" t="n">
-        <v>0.0458974358974359</v>
+        <v>0.05333333333333332</v>
       </c>
       <c r="AF1" s="1" t="n">
-        <v>0.04230769230769231</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="AG1" s="1" t="n">
-        <v>0.03871794871794873</v>
+        <v>0.04666666666666665</v>
       </c>
       <c r="AH1" s="1" t="n">
-        <v>0.03512820512820514</v>
+        <v>0.04333333333333332</v>
       </c>
       <c r="AI1" s="1" t="n">
-        <v>0.03153846153846154</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="AJ1" s="1" t="n">
-        <v>0.02794871794871796</v>
+        <v>0.03666666666666665</v>
       </c>
       <c r="AK1" s="1" t="n">
-        <v>0.02435897435897436</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="AL1" s="1" t="n">
-        <v>0.02076923076923079</v>
+        <v>0.02999999999999999</v>
       </c>
       <c r="AM1" s="1" t="n">
-        <v>0.0171794871794872</v>
+        <v>0.02666666666666666</v>
       </c>
       <c r="AN1" s="1" t="n">
-        <v>0.0135897435897436</v>
+        <v>0.02333333333333332</v>
       </c>
       <c r="AO1" s="1" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="2">
@@ -2097,124 +2097,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>508116.3481488888</v>
+        <v>330826.8160894167</v>
       </c>
       <c r="C2" t="n">
-        <v>511596.9552866414</v>
+        <v>335589.2092492448</v>
       </c>
       <c r="D2" t="n">
-        <v>515646.5024172795</v>
+        <v>339434.3279215424</v>
       </c>
       <c r="E2" t="n">
-        <v>519693.3581761105</v>
+        <v>343182.2970359011</v>
       </c>
       <c r="F2" t="n">
-        <v>523720.9058515081</v>
+        <v>346911.1966650275</v>
       </c>
       <c r="G2" t="n">
-        <v>527731.3085585167</v>
+        <v>350622.0618789257</v>
       </c>
       <c r="H2" t="n">
-        <v>531722.0703188495</v>
+        <v>354315.6564848322</v>
       </c>
       <c r="I2" t="n">
-        <v>535698.6379353412</v>
+        <v>357992.6614715755</v>
       </c>
       <c r="J2" t="n">
-        <v>539658.678652573</v>
+        <v>361653.7705705932</v>
       </c>
       <c r="K2" t="n">
-        <v>543602.1030909602</v>
+        <v>365299.5088580602</v>
       </c>
       <c r="L2" t="n">
-        <v>547532.4471254472</v>
+        <v>368930.433857628</v>
       </c>
       <c r="M2" t="n">
-        <v>551447.2842327243</v>
+        <v>372546.970009118</v>
       </c>
       <c r="N2" t="n">
-        <v>555349.36254089</v>
+        <v>376149.5809059704</v>
       </c>
       <c r="O2" t="n">
-        <v>559237.4868259723</v>
+        <v>379738.6022875487</v>
       </c>
       <c r="P2" t="n">
-        <v>565814.4278148129</v>
+        <v>383314.422802567</v>
       </c>
       <c r="Q2" t="n">
-        <v>573650.175001051</v>
+        <v>386877.3057266818</v>
       </c>
       <c r="R2" t="n">
-        <v>581487.9815351547</v>
+        <v>390427.5797405705</v>
       </c>
       <c r="S2" t="n">
-        <v>589327.5167632813</v>
+        <v>393965.4483123852</v>
       </c>
       <c r="T2" t="n">
-        <v>597168.8182520373</v>
+        <v>397491.1913037816</v>
       </c>
       <c r="U2" t="n">
-        <v>605011.842075737</v>
+        <v>401004.9630655848</v>
       </c>
       <c r="V2" t="n">
-        <v>612856.9477204672</v>
+        <v>404506.9914269192</v>
       </c>
       <c r="W2" t="n">
-        <v>620703.4662725813</v>
+        <v>407997.4316852437</v>
       </c>
       <c r="X2" t="n">
-        <v>628551.7145109234</v>
+        <v>411476.4362541268</v>
       </c>
       <c r="Y2" t="n">
-        <v>636402.0868682435</v>
+        <v>416683.5880818073</v>
       </c>
       <c r="Z2" t="n">
-        <v>644254.0532006806</v>
+        <v>422642.7646275409</v>
       </c>
       <c r="AA2" t="n">
-        <v>652107.8069987507</v>
+        <v>428602.1371599211</v>
       </c>
       <c r="AB2" t="n">
-        <v>659963.5530790304</v>
+        <v>434561.7002321241</v>
       </c>
       <c r="AC2" t="n">
-        <v>667821.1401789187</v>
+        <v>440521.4485125925</v>
       </c>
       <c r="AD2" t="n">
-        <v>675680.5755174867</v>
+        <v>446841.7011466236</v>
       </c>
       <c r="AE2" t="n">
-        <v>683541.9240768565</v>
+        <v>453181.6172665942</v>
       </c>
       <c r="AF2" t="n">
-        <v>691405.2343003921</v>
+        <v>459522.6179279797</v>
       </c>
       <c r="AG2" t="n">
-        <v>699270.5489058823</v>
+        <v>465864.6950538735</v>
       </c>
       <c r="AH2" t="n">
-        <v>707137.949351254</v>
+        <v>472207.8407259316</v>
       </c>
       <c r="AI2" t="n">
-        <v>715007.5369468953</v>
+        <v>478552.0471801417</v>
       </c>
       <c r="AJ2" t="n">
-        <v>722879.4386264215</v>
+        <v>484897.3068025913</v>
       </c>
       <c r="AK2" t="n">
-        <v>730753.7920594901</v>
+        <v>491243.6121251292</v>
       </c>
       <c r="AL2" t="n">
-        <v>738630.8172940994</v>
+        <v>497590.9558206614</v>
       </c>
       <c r="AM2" t="n">
-        <v>746510.7591555907</v>
+        <v>503939.3306975272</v>
       </c>
       <c r="AN2" t="n">
-        <v>754394.4916554077</v>
+        <v>510288.7296916245</v>
       </c>
       <c r="AO2" t="n">
-        <v>762304.174870451</v>
+        <v>516639.1458526567</v>
       </c>
     </row>
   </sheetData>
@@ -2241,121 +2241,121 @@
         <v>0.15</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>0.1464102564102564</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>0.1428205128205128</v>
+        <v>0.1433333333333333</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>0.1392307692307692</v>
+        <v>0.14</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>0.1356410256410256</v>
+        <v>0.1366666666666667</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>0.1320512820512821</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>0.1284615384615385</v>
+        <v>0.13</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>0.1248717948717949</v>
+        <v>0.1266666666666666</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>0.1212820512820513</v>
+        <v>0.1233333333333333</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>0.1176923076923077</v>
+        <v>0.12</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>0.1141025641025641</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="M1" s="1" t="n">
-        <v>0.1105128205128205</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="N1" s="1" t="n">
-        <v>0.1069230769230769</v>
+        <v>0.11</v>
       </c>
       <c r="O1" s="1" t="n">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="P1" s="1" t="n">
         <v>0.1033333333333333</v>
       </c>
-      <c r="P1" s="1" t="n">
-        <v>0.09974358974358974</v>
-      </c>
       <c r="Q1" s="1" t="n">
-        <v>0.09615384615384615</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="R1" s="1" t="n">
-        <v>0.09256410256410257</v>
+        <v>0.09666666666666665</v>
       </c>
       <c r="S1" s="1" t="n">
-        <v>0.08897435897435899</v>
+        <v>0.09333333333333332</v>
       </c>
       <c r="T1" s="1" t="n">
-        <v>0.08538461538461539</v>
+        <v>0.09</v>
       </c>
       <c r="U1" s="1" t="n">
-        <v>0.0817948717948718</v>
+        <v>0.08666666666666666</v>
       </c>
       <c r="V1" s="1" t="n">
-        <v>0.0782051282051282</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="W1" s="1" t="n">
-        <v>0.07461538461538463</v>
+        <v>0.07999999999999999</v>
       </c>
       <c r="X1" s="1" t="n">
-        <v>0.07102564102564103</v>
+        <v>0.07666666666666666</v>
       </c>
       <c r="Y1" s="1" t="n">
-        <v>0.06743589743589744</v>
+        <v>0.07333333333333332</v>
       </c>
       <c r="Z1" s="1" t="n">
-        <v>0.06384615384615386</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="AA1" s="1" t="n">
-        <v>0.06025641025641026</v>
+        <v>0.06666666666666665</v>
       </c>
       <c r="AB1" s="1" t="n">
-        <v>0.05666666666666667</v>
+        <v>0.06333333333333332</v>
       </c>
       <c r="AC1" s="1" t="n">
-        <v>0.05307692307692308</v>
+        <v>0.05999999999999998</v>
       </c>
       <c r="AD1" s="1" t="n">
-        <v>0.0494871794871795</v>
+        <v>0.05666666666666666</v>
       </c>
       <c r="AE1" s="1" t="n">
-        <v>0.0458974358974359</v>
+        <v>0.05333333333333332</v>
       </c>
       <c r="AF1" s="1" t="n">
-        <v>0.04230769230769231</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="AG1" s="1" t="n">
-        <v>0.03871794871794873</v>
+        <v>0.04666666666666665</v>
       </c>
       <c r="AH1" s="1" t="n">
-        <v>0.03512820512820514</v>
+        <v>0.04333333333333332</v>
       </c>
       <c r="AI1" s="1" t="n">
-        <v>0.03153846153846154</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="AJ1" s="1" t="n">
-        <v>0.02794871794871796</v>
+        <v>0.03666666666666665</v>
       </c>
       <c r="AK1" s="1" t="n">
-        <v>0.02435897435897436</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="AL1" s="1" t="n">
-        <v>0.02076923076923079</v>
+        <v>0.02999999999999999</v>
       </c>
       <c r="AM1" s="1" t="n">
-        <v>0.0171794871794872</v>
+        <v>0.02666666666666666</v>
       </c>
       <c r="AN1" s="1" t="n">
-        <v>0.0135897435897436</v>
+        <v>0.02333333333333332</v>
       </c>
       <c r="AO1" s="1" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="2">
@@ -2363,124 +2363,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>37309.55563922711</v>
+        <v>37219.34911151963</v>
       </c>
       <c r="C2" t="n">
-        <v>37242.21342560915</v>
+        <v>37213.17184670174</v>
       </c>
       <c r="D2" t="n">
-        <v>37264.55932220446</v>
+        <v>37209.80176303433</v>
       </c>
       <c r="E2" t="n">
-        <v>37287.98095881034</v>
+        <v>37205.67795168657</v>
       </c>
       <c r="F2" t="n">
-        <v>37311.73884058419</v>
+        <v>37201.47821306741</v>
       </c>
       <c r="G2" t="n">
-        <v>37335.15505348261</v>
+        <v>37197.49040733743</v>
       </c>
       <c r="H2" t="n">
-        <v>37361.86019066911</v>
+        <v>37193.03014040316</v>
       </c>
       <c r="I2" t="n">
-        <v>37383.91428191205</v>
+        <v>37191.53525871907</v>
       </c>
       <c r="J2" t="n">
-        <v>37407.11182378576</v>
+        <v>37185.62997104303</v>
       </c>
       <c r="K2" t="n">
-        <v>37430.31672882939</v>
+        <v>37180.81122191106</v>
       </c>
       <c r="L2" t="n">
-        <v>37453.54406692411</v>
+        <v>37175.92721050929</v>
       </c>
       <c r="M2" t="n">
-        <v>37475.6906796558</v>
+        <v>37170.97473381968</v>
       </c>
       <c r="N2" t="n">
-        <v>37498.93207285459</v>
+        <v>37164.89848093619</v>
       </c>
       <c r="O2" t="n">
-        <v>37522.19201140554</v>
+        <v>37159.80722070068</v>
       </c>
       <c r="P2" t="n">
-        <v>37555.36540866306</v>
+        <v>37154.65715657216</v>
       </c>
       <c r="Q2" t="n">
-        <v>37592.7220154967</v>
+        <v>37149.76343069109</v>
       </c>
       <c r="R2" t="n">
-        <v>37630.03130389686</v>
+        <v>37144.5020943725</v>
       </c>
       <c r="S2" t="n">
-        <v>37667.7317309698</v>
+        <v>37139.05840568791</v>
       </c>
       <c r="T2" t="n">
-        <v>37705.17791641594</v>
+        <v>37133.86362464709</v>
       </c>
       <c r="U2" t="n">
-        <v>37743.01793242284</v>
+        <v>37128.29899012495</v>
       </c>
       <c r="V2" t="n">
-        <v>37780.6145304015</v>
+        <v>37122.9981165594</v>
       </c>
       <c r="W2" t="n">
-        <v>37820.1595800514</v>
+        <v>37117.32333621397</v>
       </c>
       <c r="X2" t="n">
-        <v>37857.79230916595</v>
+        <v>37111.58386633132</v>
       </c>
       <c r="Y2" t="n">
-        <v>37894.45243975521</v>
+        <v>37114.03719985595</v>
       </c>
       <c r="Z2" t="n">
-        <v>37932.25967470845</v>
+        <v>37116.19745574089</v>
       </c>
       <c r="AA2" t="n">
-        <v>37970.45851772794</v>
+        <v>37119.36758550291</v>
       </c>
       <c r="AB2" t="n">
-        <v>38008.70576880933</v>
+        <v>37122.52054899275</v>
       </c>
       <c r="AC2" t="n">
-        <v>38046.62819924536</v>
+        <v>37125.98580205562</v>
       </c>
       <c r="AD2" t="n">
-        <v>38084.94141707646</v>
+        <v>37129.0969518598</v>
       </c>
       <c r="AE2" t="n">
-        <v>38123.32451321105</v>
+        <v>37131.84829884352</v>
       </c>
       <c r="AF2" t="n">
-        <v>38161.45833620753</v>
+        <v>37134.91167034704</v>
       </c>
       <c r="AG2" t="n">
-        <v>38199.98232005047</v>
+        <v>37137.95755269051</v>
       </c>
       <c r="AH2" t="n">
-        <v>38238.39364017073</v>
+        <v>37140.65427526122</v>
       </c>
       <c r="AI2" t="n">
-        <v>38276.96658642426</v>
+        <v>37143.66335082705</v>
       </c>
       <c r="AJ2" t="n">
-        <v>38315.59834917867</v>
+        <v>37146.49695766141</v>
       </c>
       <c r="AK2" t="n">
-        <v>38354.29903975892</v>
+        <v>37149.3851011973</v>
       </c>
       <c r="AL2" t="n">
-        <v>38393.06809042851</v>
+        <v>37152.23289284742</v>
       </c>
       <c r="AM2" t="n">
-        <v>38431.90469658244</v>
+        <v>37155.05412483482</v>
       </c>
       <c r="AN2" t="n">
-        <v>38470.80983491122</v>
+        <v>37157.50308742628</v>
       </c>
       <c r="AO2" t="n">
-        <v>38510.10641426516</v>
+        <v>37160.26587504137</v>
       </c>
     </row>
   </sheetData>
@@ -2507,121 +2507,121 @@
         <v>0.15</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>0.1464102564102564</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>0.1428205128205128</v>
+        <v>0.1433333333333333</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>0.1392307692307692</v>
+        <v>0.14</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>0.1356410256410256</v>
+        <v>0.1366666666666667</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>0.1320512820512821</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>0.1284615384615385</v>
+        <v>0.13</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>0.1248717948717949</v>
+        <v>0.1266666666666666</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>0.1212820512820513</v>
+        <v>0.1233333333333333</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>0.1176923076923077</v>
+        <v>0.12</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>0.1141025641025641</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="M1" s="1" t="n">
-        <v>0.1105128205128205</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="N1" s="1" t="n">
-        <v>0.1069230769230769</v>
+        <v>0.11</v>
       </c>
       <c r="O1" s="1" t="n">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="P1" s="1" t="n">
         <v>0.1033333333333333</v>
       </c>
-      <c r="P1" s="1" t="n">
-        <v>0.09974358974358974</v>
-      </c>
       <c r="Q1" s="1" t="n">
-        <v>0.09615384615384615</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="R1" s="1" t="n">
-        <v>0.09256410256410257</v>
+        <v>0.09666666666666665</v>
       </c>
       <c r="S1" s="1" t="n">
-        <v>0.08897435897435899</v>
+        <v>0.09333333333333332</v>
       </c>
       <c r="T1" s="1" t="n">
-        <v>0.08538461538461539</v>
+        <v>0.09</v>
       </c>
       <c r="U1" s="1" t="n">
-        <v>0.0817948717948718</v>
+        <v>0.08666666666666666</v>
       </c>
       <c r="V1" s="1" t="n">
-        <v>0.0782051282051282</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="W1" s="1" t="n">
-        <v>0.07461538461538463</v>
+        <v>0.07999999999999999</v>
       </c>
       <c r="X1" s="1" t="n">
-        <v>0.07102564102564103</v>
+        <v>0.07666666666666666</v>
       </c>
       <c r="Y1" s="1" t="n">
-        <v>0.06743589743589744</v>
+        <v>0.07333333333333332</v>
       </c>
       <c r="Z1" s="1" t="n">
-        <v>0.06384615384615386</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="AA1" s="1" t="n">
-        <v>0.06025641025641026</v>
+        <v>0.06666666666666665</v>
       </c>
       <c r="AB1" s="1" t="n">
-        <v>0.05666666666666667</v>
+        <v>0.06333333333333332</v>
       </c>
       <c r="AC1" s="1" t="n">
-        <v>0.05307692307692308</v>
+        <v>0.05999999999999998</v>
       </c>
       <c r="AD1" s="1" t="n">
-        <v>0.0494871794871795</v>
+        <v>0.05666666666666666</v>
       </c>
       <c r="AE1" s="1" t="n">
-        <v>0.0458974358974359</v>
+        <v>0.05333333333333332</v>
       </c>
       <c r="AF1" s="1" t="n">
-        <v>0.04230769230769231</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="AG1" s="1" t="n">
-        <v>0.03871794871794873</v>
+        <v>0.04666666666666665</v>
       </c>
       <c r="AH1" s="1" t="n">
-        <v>0.03512820512820514</v>
+        <v>0.04333333333333332</v>
       </c>
       <c r="AI1" s="1" t="n">
-        <v>0.03153846153846154</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="AJ1" s="1" t="n">
-        <v>0.02794871794871796</v>
+        <v>0.03666666666666665</v>
       </c>
       <c r="AK1" s="1" t="n">
-        <v>0.02435897435897436</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="AL1" s="1" t="n">
-        <v>0.02076923076923079</v>
+        <v>0.02999999999999999</v>
       </c>
       <c r="AM1" s="1" t="n">
-        <v>0.0171794871794872</v>
+        <v>0.02666666666666666</v>
       </c>
       <c r="AN1" s="1" t="n">
-        <v>0.0135897435897436</v>
+        <v>0.02333333333333332</v>
       </c>
       <c r="AO1" s="1" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="2">
@@ -2629,124 +2629,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>456050.3371866837</v>
+        <v>569888.9177918945</v>
       </c>
       <c r="C2" t="n">
-        <v>447681.5929436236</v>
+        <v>561556.1721750724</v>
       </c>
       <c r="D2" t="n">
-        <v>438901.0302257984</v>
+        <v>553641.3874387438</v>
       </c>
       <c r="E2" t="n">
-        <v>430120.6740664667</v>
+        <v>545771.9204420007</v>
       </c>
       <c r="F2" t="n">
-        <v>421350.1028343915</v>
+        <v>537911.2768417406</v>
       </c>
       <c r="G2" t="n">
-        <v>412588.8614483876</v>
+        <v>530058.6939751068</v>
       </c>
       <c r="H2" t="n">
-        <v>403834.6278322384</v>
+        <v>522214.5058659437</v>
       </c>
       <c r="I2" t="n">
-        <v>395092.4864898644</v>
+        <v>514374.9622876397</v>
       </c>
       <c r="J2" t="n">
-        <v>386357.8658631613</v>
+        <v>506547.1208060446</v>
       </c>
       <c r="K2" t="n">
-        <v>377631.9488965101</v>
+        <v>498725.2436160228</v>
       </c>
       <c r="L2" t="n">
-        <v>368912.8668505623</v>
+        <v>490910.2267736245</v>
       </c>
       <c r="M2" t="n">
-        <v>360202.9949796748</v>
+        <v>483101.8787847267</v>
       </c>
       <c r="N2" t="n">
-        <v>351498.7170819436</v>
+        <v>475301.04230272</v>
       </c>
       <c r="O2" t="n">
-        <v>342801.7359842669</v>
+        <v>467505.4545498991</v>
       </c>
       <c r="P2" t="n">
-        <v>332685.2391358324</v>
+        <v>459715.9810436002</v>
       </c>
       <c r="Q2" t="n">
-        <v>321904.6345472205</v>
+        <v>451932.1858730484</v>
       </c>
       <c r="R2" t="n">
-        <v>311122.9976714797</v>
+        <v>444154.5422159937</v>
       </c>
       <c r="S2" t="n">
-        <v>300340.0633955666</v>
+        <v>436382.7714803625</v>
       </c>
       <c r="T2" t="n">
-        <v>289556.4574056256</v>
+        <v>428616.3140292536</v>
       </c>
       <c r="U2" t="n">
-        <v>278771.5546573484</v>
+        <v>420855.7178206701</v>
       </c>
       <c r="V2" t="n">
-        <v>267985.8039400625</v>
+        <v>413100.2447314144</v>
       </c>
       <c r="W2" t="n">
-        <v>257197.3640595927</v>
+        <v>405350.4611918658</v>
       </c>
       <c r="X2" t="n">
-        <v>246409.9297179993</v>
+        <v>397605.9880703085</v>
       </c>
       <c r="Y2" t="n">
-        <v>235622.3544133504</v>
+        <v>389060.5941427631</v>
       </c>
       <c r="Z2" t="n">
-        <v>224832.7963687303</v>
+        <v>380170.5278684127</v>
       </c>
       <c r="AA2" t="n">
-        <v>214041.9096437438</v>
+        <v>371279.3618180648</v>
       </c>
       <c r="AB2" t="n">
-        <v>203249.9300640563</v>
+        <v>362388.1255304113</v>
       </c>
       <c r="AC2" t="n">
-        <v>192457.3101572387</v>
+        <v>353496.4919952756</v>
       </c>
       <c r="AD2" t="n">
-        <v>181663.3305306796</v>
+        <v>344439.8436142727</v>
       </c>
       <c r="AE2" t="n">
-        <v>170868.2780268306</v>
+        <v>335374.5350895246</v>
       </c>
       <c r="AF2" t="n">
-        <v>160072.4464008779</v>
+        <v>326308.417044256</v>
       </c>
       <c r="AG2" t="n">
-        <v>149275.1738241932</v>
+        <v>317241.8226971495</v>
       </c>
       <c r="AH2" t="n">
-        <v>138476.9204173253</v>
+        <v>308175.0873510853</v>
       </c>
       <c r="AI2" t="n">
-        <v>127677.3587788203</v>
+        <v>299107.5530547684</v>
       </c>
       <c r="AJ2" t="n">
-        <v>116876.5251738275</v>
+        <v>290039.7111225456</v>
       </c>
       <c r="AK2" t="n">
-        <v>106074.3373182095</v>
+        <v>280971.3349747407</v>
       </c>
       <c r="AL2" t="n">
-        <v>95270.68042034714</v>
+        <v>271902.5228609934</v>
       </c>
       <c r="AM2" t="n">
-        <v>84465.42693605763</v>
+        <v>262833.2642880068</v>
       </c>
       <c r="AN2" t="n">
-        <v>73658.11769135881</v>
+        <v>253763.9082059273</v>
       </c>
       <c r="AO2" t="n">
-        <v>62836.8124383867</v>
+        <v>244693.7717085448</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane/Monte Carlo across lipid fraction.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane/Monte Carlo across lipid fraction.xlsx
@@ -501,124 +501,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2078786114094034</v>
+        <v>0.2109420431894216</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2056878850479802</v>
+        <v>0.2086518277697375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2038814874186508</v>
+        <v>0.2067677401978198</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2020289678830559</v>
+        <v>0.2048351376105204</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2001780369594401</v>
+        <v>0.2026691642939356</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1983490563323833</v>
+        <v>0.2004079235244789</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1964743902452934</v>
+        <v>0.1981042913781439</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1945754148632696</v>
+        <v>0.1957662985262035</v>
       </c>
       <c r="J2" t="n">
-        <v>0.192675126506525</v>
+        <v>0.1934177197206412</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1907675196085774</v>
+        <v>0.1910538623503599</v>
       </c>
       <c r="L2" t="n">
-        <v>0.188862812851053</v>
+        <v>0.188625513300036</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1869116826730292</v>
+        <v>0.1861824375069895</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1848343188315033</v>
+        <v>0.1836017450490767</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1828497285096266</v>
+        <v>0.1810870418972615</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1808476956196919</v>
+        <v>0.178577013794998</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1788147654423778</v>
+        <v>0.1760032952380184</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1767226083415045</v>
+        <v>0.1733417735995778</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1746645367655</v>
+        <v>0.1707338728074873</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1725735405690686</v>
+        <v>0.1680615397335179</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1703870235340199</v>
+        <v>0.1652618264808195</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1682535954178483</v>
+        <v>0.1625599697274379</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1661010169593352</v>
+        <v>0.1597748915891876</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1637564965531182</v>
+        <v>0.1569733821088056</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1613967123255213</v>
+        <v>0.1541165678878733</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.1590054915219551</v>
+        <v>0.1512150627656923</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1560819337844974</v>
+        <v>0.1477352297944045</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.1535028036479104</v>
+        <v>0.1446507799773902</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1509501269936825</v>
+        <v>0.1415196078549721</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.1483302330783655</v>
+        <v>0.1383910116261118</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.1457306961941814</v>
+        <v>0.1351765401223411</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.1430109467373216</v>
+        <v>0.1319056053685414</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.1398302993740005</v>
+        <v>0.1281134706753644</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1371095145851929</v>
+        <v>0.1247125637168013</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.1343000609189082</v>
+        <v>0.1212425177919349</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.1315310015133345</v>
+        <v>0.1177885455058602</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.1286511393949277</v>
+        <v>0.1142090321844847</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.125783067026795</v>
+        <v>0.1105492121138475</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.1228509076760815</v>
+        <v>0.1068382454777045</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.1198346668167418</v>
+        <v>0.1030403753717302</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.1167384659812725</v>
+        <v>0.09910399833379237</v>
       </c>
     </row>
   </sheetData>
@@ -767,124 +767,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>40169909.26602139</v>
+        <v>41419030.57686552</v>
       </c>
       <c r="C2" t="n">
-        <v>39760308.25575587</v>
+        <v>40986902.99639001</v>
       </c>
       <c r="D2" t="n">
-        <v>39260369.58772098</v>
+        <v>40459931.63934849</v>
       </c>
       <c r="E2" t="n">
-        <v>38741628.17924919</v>
+        <v>39913921.76500721</v>
       </c>
       <c r="F2" t="n">
-        <v>38201091.15727771</v>
+        <v>39439685.06758342</v>
       </c>
       <c r="G2" t="n">
-        <v>37637326.40453869</v>
+        <v>38961737.65577787</v>
       </c>
       <c r="H2" t="n">
-        <v>37054389.528507</v>
+        <v>38458730.19999026</v>
       </c>
       <c r="I2" t="n">
-        <v>36450410.23741774</v>
+        <v>37929515.84802461</v>
       </c>
       <c r="J2" t="n">
-        <v>35823986.66169028</v>
+        <v>37372586.64422105</v>
       </c>
       <c r="K2" t="n">
-        <v>35175212.66837131</v>
+        <v>36787816.42458539</v>
       </c>
       <c r="L2" t="n">
-        <v>34503303.3725742</v>
+        <v>36177397.55815727</v>
       </c>
       <c r="M2" t="n">
-        <v>33810654.51506525</v>
+        <v>35538244.48191033</v>
       </c>
       <c r="N2" t="n">
-        <v>33101063.69322426</v>
+        <v>34876118.17307338</v>
       </c>
       <c r="O2" t="n">
-        <v>32362740.68328239</v>
+        <v>34180381.83640879</v>
       </c>
       <c r="P2" t="n">
-        <v>31601207.76915237</v>
+        <v>33453799.47318295</v>
       </c>
       <c r="Q2" t="n">
-        <v>30816846.36610522</v>
+        <v>32699217.12099308</v>
       </c>
       <c r="R2" t="n">
-        <v>30010624.26390854</v>
+        <v>31917148.55739649</v>
       </c>
       <c r="S2" t="n">
-        <v>29177912.30893111</v>
+        <v>31100900.84881843</v>
       </c>
       <c r="T2" t="n">
-        <v>28321512.85441091</v>
+        <v>30255247.12028876</v>
       </c>
       <c r="U2" t="n">
-        <v>27443675.88280649</v>
+        <v>29382139.16756027</v>
       </c>
       <c r="V2" t="n">
-        <v>26537768.19868731</v>
+        <v>28472040.07489767</v>
       </c>
       <c r="W2" t="n">
-        <v>25614157.69354669</v>
+        <v>27531820.1359465</v>
       </c>
       <c r="X2" t="n">
-        <v>24687979.77752503</v>
+        <v>26558356.44716079</v>
       </c>
       <c r="Y2" t="n">
-        <v>23732822.5904107</v>
+        <v>25552622.11997193</v>
       </c>
       <c r="Z2" t="n">
-        <v>22748933.95431584</v>
+        <v>24513769.00599154</v>
       </c>
       <c r="AA2" t="n">
-        <v>21751966.28296228</v>
+        <v>23457840.80418609</v>
       </c>
       <c r="AB2" t="n">
-        <v>20714822.40796945</v>
+        <v>22355964.13356444</v>
       </c>
       <c r="AC2" t="n">
-        <v>19645606.31523774</v>
+        <v>21219245.36531778</v>
       </c>
       <c r="AD2" t="n">
-        <v>18546317.85528799</v>
+        <v>20045426.52086086</v>
       </c>
       <c r="AE2" t="n">
-        <v>17414121.71596093</v>
+        <v>18836430.44775112</v>
       </c>
       <c r="AF2" t="n">
-        <v>16252181.94454913</v>
+        <v>17590899.45993496</v>
       </c>
       <c r="AG2" t="n">
-        <v>15067043.1248935</v>
+        <v>16318163.69784644</v>
       </c>
       <c r="AH2" t="n">
-        <v>13837531.72577108</v>
+        <v>14997524.20567395</v>
       </c>
       <c r="AI2" t="n">
-        <v>12575890.85371012</v>
+        <v>13638979.37498821</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11279312.21836513</v>
+        <v>12240643.01744812</v>
       </c>
       <c r="AK2" t="n">
-        <v>9949982.082045136</v>
+        <v>10804447.26299544</v>
       </c>
       <c r="AL2" t="n">
-        <v>8585566.419976819</v>
+        <v>9329046.882078357</v>
       </c>
       <c r="AM2" t="n">
-        <v>7186747.192557645</v>
+        <v>7813637.25148143</v>
       </c>
       <c r="AN2" t="n">
-        <v>5753155.48723636</v>
+        <v>6258206.248031246</v>
       </c>
       <c r="AO2" t="n">
-        <v>4284131.04517551</v>
+        <v>4662605.197297037</v>
       </c>
     </row>
   </sheetData>
@@ -1033,124 +1033,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10482434.39294328</v>
+        <v>10808395.60194274</v>
       </c>
       <c r="C2" t="n">
-        <v>11304085.94057387</v>
+        <v>11652813.93013559</v>
       </c>
       <c r="D2" t="n">
-        <v>12195439.25978026</v>
+        <v>12568058.93434227</v>
       </c>
       <c r="E2" t="n">
-        <v>13107167.70969089</v>
+        <v>13503781.10349129</v>
       </c>
       <c r="F2" t="n">
-        <v>14038301.74980861</v>
+        <v>14493465.58234837</v>
       </c>
       <c r="G2" t="n">
-        <v>14988486.69138522</v>
+        <v>15515913.11375526</v>
       </c>
       <c r="H2" t="n">
-        <v>15959572.94407308</v>
+        <v>16564431.84662288</v>
       </c>
       <c r="I2" t="n">
-        <v>16951223.79306974</v>
+        <v>17639080.25492224</v>
       </c>
       <c r="J2" t="n">
-        <v>17963128.07006869</v>
+        <v>18739638.51482202</v>
       </c>
       <c r="K2" t="n">
-        <v>18995613.35401533</v>
+        <v>19866465.15909396</v>
       </c>
       <c r="L2" t="n">
-        <v>20048546.49244525</v>
+        <v>21021298.42723747</v>
       </c>
       <c r="M2" t="n">
-        <v>21123685.84341149</v>
+        <v>22203022.17242591</v>
       </c>
       <c r="N2" t="n">
-        <v>22224212.65400673</v>
+        <v>23415992.73087143</v>
       </c>
       <c r="O2" t="n">
-        <v>23342909.99623673</v>
+        <v>24653955.75277869</v>
       </c>
       <c r="P2" t="n">
-        <v>24483637.02060692</v>
+        <v>25918967.69404874</v>
       </c>
       <c r="Q2" t="n">
-        <v>25647180.81673237</v>
+        <v>27213775.35211083</v>
       </c>
       <c r="R2" t="n">
-        <v>26835019.69102194</v>
+        <v>28539803.18726827</v>
       </c>
       <c r="S2" t="n">
-        <v>28043610.17424297</v>
+        <v>29891841.82327804</v>
       </c>
       <c r="T2" t="n">
-        <v>29275898.76785849</v>
+        <v>31274796.52811575</v>
       </c>
       <c r="U2" t="n">
-        <v>30535110.46624861</v>
+        <v>32691934.89412371</v>
       </c>
       <c r="V2" t="n">
-        <v>31814728.42430772</v>
+        <v>34133624.79794673</v>
       </c>
       <c r="W2" t="n">
-        <v>33127992.46889305</v>
+        <v>35608195.32036941</v>
       </c>
       <c r="X2" t="n">
-        <v>34499085.00012609</v>
+        <v>37112757.09032923</v>
       </c>
       <c r="Y2" t="n">
-        <v>35896962.30446336</v>
+        <v>38649490.99613</v>
       </c>
       <c r="Z2" t="n">
-        <v>37322789.64943428</v>
+        <v>40218246.97204627</v>
       </c>
       <c r="AA2" t="n">
-        <v>38805536.13084564</v>
+        <v>41848818.49469751</v>
       </c>
       <c r="AB2" t="n">
-        <v>40301377.48104864</v>
+        <v>43494273.41230498</v>
       </c>
       <c r="AC2" t="n">
-        <v>41823958.49712521</v>
+        <v>45174112.89113615</v>
       </c>
       <c r="AD2" t="n">
-        <v>43378405.8457624</v>
+        <v>46884705.29611814</v>
       </c>
       <c r="AE2" t="n">
-        <v>44959444.81933044</v>
+        <v>48631534.17221252</v>
       </c>
       <c r="AF2" t="n">
-        <v>46576465.14840617</v>
+        <v>50413041.0562855</v>
       </c>
       <c r="AG2" t="n">
-        <v>48254063.16769751</v>
+        <v>52260931.04862449</v>
       </c>
       <c r="AH2" t="n">
-        <v>49928924.92503751</v>
+        <v>54114438.54050502</v>
       </c>
       <c r="AI2" t="n">
-        <v>51638733.96622934</v>
+        <v>56003955.16379052</v>
       </c>
       <c r="AJ2" t="n">
-        <v>53374129.80496532</v>
+        <v>57923183.31659902</v>
       </c>
       <c r="AK2" t="n">
-        <v>55146644.26070421</v>
+        <v>59882420.36346271</v>
       </c>
       <c r="AL2" t="n">
-        <v>56946955.31487119</v>
+        <v>61878365.37935594</v>
       </c>
       <c r="AM2" t="n">
-        <v>58781117.82363924</v>
+        <v>63908513.76908546</v>
       </c>
       <c r="AN2" t="n">
-        <v>60651053.54507954</v>
+        <v>65975411.76969419</v>
       </c>
       <c r="AO2" t="n">
-        <v>62556809.0941578</v>
+        <v>68083282.26495448</v>
       </c>
     </row>
   </sheetData>
@@ -1299,124 +1299,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>236967893.5154485</v>
+        <v>226432650.5396749</v>
       </c>
       <c r="C2" t="n">
-        <v>235978707.1705027</v>
+        <v>225474731.9902486</v>
       </c>
       <c r="D2" t="n">
-        <v>234988507.8059697</v>
+        <v>224519553.6286486</v>
       </c>
       <c r="E2" t="n">
-        <v>234034109.5073556</v>
+        <v>223600264.1917518</v>
       </c>
       <c r="F2" t="n">
-        <v>233054972.77318</v>
+        <v>222486247.921466</v>
       </c>
       <c r="G2" t="n">
-        <v>232026006.1719253</v>
+        <v>221350443.3110774</v>
       </c>
       <c r="H2" t="n">
-        <v>231026952.2354321</v>
+        <v>220225720.8774273</v>
       </c>
       <c r="I2" t="n">
-        <v>230033150.0241491</v>
+        <v>219103537.5208543</v>
       </c>
       <c r="J2" t="n">
-        <v>229015057.1865707</v>
+        <v>217954472.3170371</v>
       </c>
       <c r="K2" t="n">
-        <v>227979371.9554961</v>
+        <v>216782849.7353802</v>
       </c>
       <c r="L2" t="n">
-        <v>226912926.8157724</v>
+        <v>215644057.6273697</v>
       </c>
       <c r="M2" t="n">
-        <v>225874961.3666626</v>
+        <v>214479879.9491647</v>
       </c>
       <c r="N2" t="n">
-        <v>224961648.8401971</v>
+        <v>213430907.5123668</v>
       </c>
       <c r="O2" t="n">
-        <v>223906034.5448167</v>
+        <v>212260174.7405915</v>
       </c>
       <c r="P2" t="n">
-        <v>222841557.7264628</v>
+        <v>211037055.2128484</v>
       </c>
       <c r="Q2" t="n">
-        <v>221783622.2998371</v>
+        <v>209839417.0773361</v>
       </c>
       <c r="R2" t="n">
-        <v>220766149.0219775</v>
+        <v>208694169.3476973</v>
       </c>
       <c r="S2" t="n">
-        <v>219673469.1263903</v>
+        <v>207433233.7394528</v>
       </c>
       <c r="T2" t="n">
-        <v>218587034.3932686</v>
+        <v>206193520.040765</v>
       </c>
       <c r="U2" t="n">
-        <v>217583280.5233486</v>
+        <v>205047964.4080471</v>
       </c>
       <c r="V2" t="n">
-        <v>216477503.6342024</v>
+        <v>203727178.5745857</v>
       </c>
       <c r="W2" t="n">
-        <v>215267509.3402391</v>
+        <v>202443220.9039226</v>
       </c>
       <c r="X2" t="n">
-        <v>214035009.5521774</v>
+        <v>201114959.4983017</v>
       </c>
       <c r="Y2" t="n">
-        <v>212772532.4325331</v>
+        <v>199786064.1989745</v>
       </c>
       <c r="Z2" t="n">
-        <v>211497939.9975703</v>
+        <v>198440436.3200838</v>
       </c>
       <c r="AA2" t="n">
-        <v>210840392.5204415</v>
+        <v>197724359.4822111</v>
       </c>
       <c r="AB2" t="n">
-        <v>209653436.7908335</v>
+        <v>196401468.7624894</v>
       </c>
       <c r="AC2" t="n">
-        <v>208368066.2419379</v>
+        <v>195045297.0186474</v>
       </c>
       <c r="AD2" t="n">
-        <v>207107104.9179451</v>
+        <v>193598636.126559</v>
       </c>
       <c r="AE2" t="n">
-        <v>205756633.6347704</v>
+        <v>192166109.3298149</v>
       </c>
       <c r="AF2" t="n">
-        <v>204493776.6252054</v>
+        <v>190706955.9417738</v>
       </c>
       <c r="AG2" t="n">
-        <v>203756533.7443128</v>
+        <v>189798533.8138618</v>
       </c>
       <c r="AH2" t="n">
-        <v>202355427.9961866</v>
+        <v>188293943.5880046</v>
       </c>
       <c r="AI2" t="n">
-        <v>200993390.4566386</v>
+        <v>186761798.9099871</v>
       </c>
       <c r="AJ2" t="n">
-        <v>199499136.7536808</v>
+        <v>185086943.2360047</v>
       </c>
       <c r="AK2" t="n">
-        <v>198065875.0716817</v>
+        <v>183441619.9639963</v>
       </c>
       <c r="AL2" t="n">
-        <v>196529442.4645333</v>
+        <v>181760398.181938</v>
       </c>
       <c r="AM2" t="n">
-        <v>194984730.7018893</v>
+        <v>179996677.3925173</v>
       </c>
       <c r="AN2" t="n">
-        <v>193453618.1762959</v>
+        <v>178186157.8362176</v>
       </c>
       <c r="AO2" t="n">
-        <v>191924331.5411633</v>
+        <v>176382501.9633433</v>
       </c>
     </row>
   </sheetData>
@@ -1840,16 +1840,16 @@
         <v>32434295.47434683</v>
       </c>
       <c r="E2" t="n">
-        <v>34437929.34577612</v>
+        <v>34437929.34577611</v>
       </c>
       <c r="F2" t="n">
-        <v>36441873.35253371</v>
+        <v>36441873.35253373</v>
       </c>
       <c r="G2" t="n">
         <v>38446115.96847849</v>
       </c>
       <c r="H2" t="n">
-        <v>40450654.6818418</v>
+        <v>40450654.68184181</v>
       </c>
       <c r="I2" t="n">
         <v>42455487.1462323</v>
@@ -1927,10 +1927,10 @@
         <v>90654507.32733472</v>
       </c>
       <c r="AH2" t="n">
-        <v>92666082.88797207</v>
+        <v>92666082.88797204</v>
       </c>
       <c r="AI2" t="n">
-        <v>94677909.22852747</v>
+        <v>94677909.22852744</v>
       </c>
       <c r="AJ2" t="n">
         <v>96689985.19725901</v>
@@ -2097,124 +2097,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>329760.1338040857</v>
+        <v>358845.1189168153</v>
       </c>
       <c r="C2" t="n">
-        <v>334694.7425303489</v>
+        <v>363083.727688071</v>
       </c>
       <c r="D2" t="n">
-        <v>338770.9155637749</v>
+        <v>366463.9025308411</v>
       </c>
       <c r="E2" t="n">
-        <v>342814.1465780089</v>
+        <v>369811.1353543958</v>
       </c>
       <c r="F2" t="n">
-        <v>346835.5153097371</v>
+        <v>377221.2930469878</v>
       </c>
       <c r="G2" t="n">
-        <v>350836.2533375145</v>
+        <v>385522.943319032</v>
       </c>
       <c r="H2" t="n">
-        <v>354817.2589608324</v>
+        <v>393825.3242947604</v>
       </c>
       <c r="I2" t="n">
-        <v>358779.4225896267</v>
+        <v>402128.4667875784</v>
       </c>
       <c r="J2" t="n">
-        <v>362723.4542858249</v>
+        <v>410432.3127407724</v>
       </c>
       <c r="K2" t="n">
-        <v>366650.075297444</v>
+        <v>418736.8960953388</v>
       </c>
       <c r="L2" t="n">
-        <v>370559.8412724161</v>
+        <v>427042.1567785823</v>
       </c>
       <c r="M2" t="n">
-        <v>374453.3417008018</v>
+        <v>435348.1321323012</v>
       </c>
       <c r="N2" t="n">
-        <v>378331.0096966134</v>
+        <v>443654.759706354</v>
       </c>
       <c r="O2" t="n">
-        <v>382193.3314221301</v>
+        <v>451962.0805682375</v>
       </c>
       <c r="P2" t="n">
-        <v>386040.6416180104</v>
+        <v>460270.0294659872</v>
       </c>
       <c r="Q2" t="n">
-        <v>389873.345093145</v>
+        <v>468578.6515933223</v>
       </c>
       <c r="R2" t="n">
-        <v>393691.696609057</v>
+        <v>476887.8783038702</v>
       </c>
       <c r="S2" t="n">
-        <v>397496.0201473186</v>
+        <v>485197.7427599289</v>
       </c>
       <c r="T2" t="n">
-        <v>401286.553537465</v>
+        <v>493508.2210016976</v>
       </c>
       <c r="U2" t="n">
-        <v>405063.5221893176</v>
+        <v>501819.3032028306</v>
       </c>
       <c r="V2" t="n">
-        <v>408827.1280587544</v>
+        <v>510130.9797696045</v>
       </c>
       <c r="W2" t="n">
-        <v>413362.2281257518</v>
+        <v>518443.2413347026</v>
       </c>
       <c r="X2" t="n">
-        <v>419790.8790142416</v>
+        <v>526756.078751185</v>
       </c>
       <c r="Y2" t="n">
-        <v>426219.7578132813</v>
+        <v>535069.4830866251</v>
       </c>
       <c r="Z2" t="n">
-        <v>432648.8576878759</v>
+        <v>543383.4456174613</v>
       </c>
       <c r="AA2" t="n">
-        <v>439078.1719588315</v>
+        <v>551697.9578234681</v>
       </c>
       <c r="AB2" t="n">
-        <v>445860.6283302252</v>
+        <v>560365.9456136196</v>
       </c>
       <c r="AC2" t="n">
-        <v>452699.3581745722</v>
+        <v>569090.5386097069</v>
       </c>
       <c r="AD2" t="n">
-        <v>459539.3434570681</v>
+        <v>577816.7170690758</v>
       </c>
       <c r="AE2" t="n">
-        <v>466380.5740993987</v>
+        <v>586544.4692470012</v>
       </c>
       <c r="AF2" t="n">
-        <v>473223.0402361685</v>
+        <v>595273.7836517167</v>
       </c>
       <c r="AG2" t="n">
-        <v>480066.7322087739</v>
+        <v>604004.649036944</v>
       </c>
       <c r="AH2" t="n">
-        <v>486911.6405592554</v>
+        <v>612737.0543944523</v>
       </c>
       <c r="AI2" t="n">
-        <v>493757.7560238658</v>
+        <v>621470.9889463711</v>
       </c>
       <c r="AJ2" t="n">
-        <v>500605.0695257722</v>
+        <v>630206.4421366899</v>
       </c>
       <c r="AK2" t="n">
-        <v>507453.5721654764</v>
+        <v>638943.4036205118</v>
       </c>
       <c r="AL2" t="n">
-        <v>514303.255204968</v>
+        <v>647681.8632470919</v>
       </c>
       <c r="AM2" t="n">
-        <v>521154.110033235</v>
+        <v>656421.8110242774</v>
       </c>
       <c r="AN2" t="n">
-        <v>528006.1280675076</v>
+        <v>665163.2370187494</v>
       </c>
       <c r="AO2" t="n">
-        <v>534868.4918266062</v>
+        <v>673915.4079661551</v>
       </c>
     </row>
   </sheetData>
@@ -2363,124 +2363,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>37496.88652402591</v>
+        <v>37272.7185416634</v>
       </c>
       <c r="C2" t="n">
-        <v>37483.64351837863</v>
+        <v>37263.09051695394</v>
       </c>
       <c r="D2" t="n">
-        <v>37472.54374937856</v>
+        <v>37255.72152065662</v>
       </c>
       <c r="E2" t="n">
-        <v>37461.37148213792</v>
+        <v>37248.28446928532</v>
       </c>
       <c r="F2" t="n">
-        <v>37450.4187411089</v>
+        <v>37255.54185250689</v>
       </c>
       <c r="G2" t="n">
-        <v>37439.04092632568</v>
+        <v>37265.60849887423</v>
       </c>
       <c r="H2" t="n">
-        <v>37430.58445372231</v>
+        <v>37278.67164747795</v>
       </c>
       <c r="I2" t="n">
-        <v>37417.62428837749</v>
+        <v>37287.30309784206</v>
       </c>
       <c r="J2" t="n">
-        <v>37405.74973781187</v>
+        <v>37297.08934035386</v>
       </c>
       <c r="K2" t="n">
-        <v>37393.79730061744</v>
+        <v>37306.86434126999</v>
       </c>
       <c r="L2" t="n">
-        <v>37381.77159651712</v>
+        <v>37316.63046393688</v>
       </c>
       <c r="M2" t="n">
-        <v>37368.60370267988</v>
+        <v>37325.31674981231</v>
       </c>
       <c r="N2" t="n">
-        <v>37356.41124269964</v>
+        <v>37335.03900834225</v>
       </c>
       <c r="O2" t="n">
-        <v>37344.15032757728</v>
+        <v>37344.75170803205</v>
       </c>
       <c r="P2" t="n">
-        <v>37332.13659909254</v>
+        <v>37354.76902838152</v>
       </c>
       <c r="Q2" t="n">
-        <v>37319.73875671718</v>
+        <v>37364.45834018473</v>
       </c>
       <c r="R2" t="n">
-        <v>37307.13167743498</v>
+        <v>37373.99334026441</v>
       </c>
       <c r="S2" t="n">
-        <v>37294.78019438887</v>
+        <v>37383.83778772412</v>
       </c>
       <c r="T2" t="n">
-        <v>37282.04899024502</v>
+        <v>37393.35540566059</v>
       </c>
       <c r="U2" t="n">
-        <v>37269.57403734866</v>
+        <v>37403.18130259984</v>
       </c>
       <c r="V2" t="n">
-        <v>37256.70811698506</v>
+        <v>37412.66748309028</v>
       </c>
       <c r="W2" t="n">
-        <v>37248.54662743358</v>
+        <v>37424.02278848286</v>
       </c>
       <c r="X2" t="n">
-        <v>37245.34589923496</v>
+        <v>37433.37685031338</v>
       </c>
       <c r="Y2" t="n">
-        <v>37240.96997242724</v>
+        <v>37441.55688386478</v>
       </c>
       <c r="Z2" t="n">
-        <v>37237.65135819235</v>
+        <v>37450.79539454984</v>
       </c>
       <c r="AA2" t="n">
-        <v>37234.64162036816</v>
+        <v>37460.34394058481</v>
       </c>
       <c r="AB2" t="n">
-        <v>37231.28274670398</v>
+        <v>37469.49690104004</v>
       </c>
       <c r="AC2" t="n">
-        <v>37227.52675326623</v>
+        <v>37478.24632694061</v>
       </c>
       <c r="AD2" t="n">
-        <v>37224.08018028204</v>
+        <v>37487.30617320669</v>
       </c>
       <c r="AE2" t="n">
-        <v>37220.61322649995</v>
+        <v>37496.3466340422</v>
       </c>
       <c r="AF2" t="n">
-        <v>37216.79160089308</v>
+        <v>37505.03341398886</v>
       </c>
       <c r="AG2" t="n">
-        <v>37213.28047012947</v>
+        <v>37514.0316753925</v>
       </c>
       <c r="AH2" t="n">
-        <v>37209.55189061088</v>
+        <v>37522.81347043809</v>
       </c>
       <c r="AI2" t="n">
-        <v>37205.89570325179</v>
+        <v>37531.66863592523</v>
       </c>
       <c r="AJ2" t="n">
-        <v>37202.19961047678</v>
+        <v>37540.48487026217</v>
       </c>
       <c r="AK2" t="n">
-        <v>37198.47253782266</v>
+        <v>37549.27109506523</v>
       </c>
       <c r="AL2" t="n">
-        <v>37194.71134974856</v>
+        <v>37558.02417096688</v>
       </c>
       <c r="AM2" t="n">
-        <v>37190.91231276652</v>
+        <v>37566.74036074744</v>
       </c>
       <c r="AN2" t="n">
-        <v>37187.07091301212</v>
+        <v>37575.41514691523</v>
       </c>
       <c r="AO2" t="n">
-        <v>37183.47026427411</v>
+        <v>37584.33070310678</v>
       </c>
     </row>
   </sheetData>
@@ -2629,124 +2629,124 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>570100.6841196421</v>
+        <v>534342.0685537925</v>
       </c>
       <c r="C2" t="n">
-        <v>561222.5955846132</v>
+        <v>525494.2352133782</v>
       </c>
       <c r="D2" t="n">
-        <v>552736.1416051147</v>
+        <v>517094.1736820861</v>
       </c>
       <c r="E2" t="n">
-        <v>544264.8711399706</v>
+        <v>508711.4499385815</v>
       </c>
       <c r="F2" t="n">
-        <v>535803.4097173346</v>
+        <v>498184.0583041972</v>
       </c>
       <c r="G2" t="n">
-        <v>527351.836992951</v>
+        <v>487186.495692652</v>
       </c>
       <c r="H2" t="n">
-        <v>518906.3944869497</v>
+        <v>476185.5535101445</v>
       </c>
       <c r="I2" t="n">
-        <v>510474.0987893775</v>
+        <v>465188.6438033361</v>
       </c>
       <c r="J2" t="n">
-        <v>502049.0348762738</v>
+        <v>454190.2105178591</v>
       </c>
       <c r="K2" t="n">
-        <v>493632.0354013728</v>
+        <v>443191.4018940136</v>
       </c>
       <c r="L2" t="n">
-        <v>485222.840860611</v>
+        <v>432192.2470613436</v>
       </c>
       <c r="M2" t="n">
-        <v>476822.2497685676</v>
+        <v>421193.7974020905</v>
       </c>
       <c r="N2" t="n">
-        <v>468427.9458255209</v>
+        <v>410193.9698460653</v>
       </c>
       <c r="O2" t="n">
-        <v>460040.7499102775</v>
+        <v>399193.7883952785</v>
       </c>
       <c r="P2" t="n">
-        <v>451660.1928303165</v>
+        <v>388192.9730783336</v>
       </c>
       <c r="Q2" t="n">
-        <v>443286.7201940365</v>
+        <v>377192.1328317949</v>
       </c>
       <c r="R2" t="n">
-        <v>434920.0402613851</v>
+        <v>366191.1299464486</v>
       </c>
       <c r="S2" t="n">
-        <v>426559.5395838367</v>
+        <v>355189.4832779779</v>
       </c>
       <c r="T2" t="n">
-        <v>418205.744382622</v>
+        <v>344187.8416641238</v>
       </c>
       <c r="U2" t="n">
-        <v>409857.9152864077</v>
+        <v>333185.5751477861</v>
       </c>
       <c r="V2" t="n">
-        <v>401516.6068736091</v>
+        <v>322183.3367538906</v>
       </c>
       <c r="W2" t="n">
-        <v>392816.6976527526</v>
+        <v>311178.9225518674</v>
       </c>
       <c r="X2" t="n">
-        <v>383243.2264834245</v>
+        <v>300176.2077054312</v>
       </c>
       <c r="Y2" t="n">
-        <v>373670.8259665951</v>
+        <v>289174.3696820905</v>
       </c>
       <c r="Z2" t="n">
-        <v>364097.2667264</v>
+        <v>278171.1805497277</v>
       </c>
       <c r="AA2" t="n">
-        <v>354523.3002628518</v>
+        <v>267167.3932168233</v>
       </c>
       <c r="AB2" t="n">
-        <v>344787.6911659337</v>
+        <v>255978.6931913636</v>
       </c>
       <c r="AC2" t="n">
-        <v>335026.6656722698</v>
+        <v>244760.7216289231</v>
       </c>
       <c r="AD2" t="n">
-        <v>325264.7548691649</v>
+        <v>233541.608472809</v>
       </c>
       <c r="AE2" t="n">
-        <v>315502.2931809486</v>
+        <v>222321.6896859456</v>
       </c>
       <c r="AF2" t="n">
-        <v>305739.6194240587</v>
+        <v>211101.3055883082</v>
       </c>
       <c r="AG2" t="n">
-        <v>295976.0728623787</v>
+        <v>199879.7969133708</v>
       </c>
       <c r="AH2" t="n">
-        <v>286212.1857780194</v>
+        <v>188657.6973799728</v>
       </c>
       <c r="AI2" t="n">
-        <v>276447.6725794919</v>
+        <v>177434.7228015744</v>
       </c>
       <c r="AJ2" t="n">
-        <v>266682.649728055</v>
+        <v>166210.9910137163</v>
       </c>
       <c r="AK2" t="n">
-        <v>256917.1123805107</v>
+        <v>154986.498518057</v>
       </c>
       <c r="AL2" t="n">
-        <v>247151.0676806609</v>
+        <v>143761.2537754547</v>
       </c>
       <c r="AM2" t="n">
-        <v>237384.5233119983</v>
+        <v>132535.2657614783</v>
       </c>
       <c r="AN2" t="n">
-        <v>227617.4877254371</v>
+        <v>121308.5442011253</v>
       </c>
       <c r="AO2" t="n">
-        <v>217845.4656431122</v>
+        <v>110075.9488685952</v>
       </c>
     </row>
   </sheetData>
